--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_25_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2024204.850961062</v>
+        <v>2023610.984249822</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736555</v>
+        <v>504792.0292736557</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>131.6224207170393</v>
       </c>
-      <c r="C11" t="n">
-        <v>83.69827355632171</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>101.7754565731323</v>
       </c>
       <c r="G11" t="n">
-        <v>131.6224207170393</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.23475461124628</v>
+        <v>32.2347546112463</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>113.5452377002289</v>
       </c>
       <c r="W11" t="n">
         <v>131.6224207170393</v>
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>6.047422663360152</v>
+        <v>6.04742266336018</v>
       </c>
       <c r="W12" t="n">
-        <v>18.83846641623384</v>
+        <v>18.83846641623387</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>9.884882276754366</v>
+        <v>9.884882276754395</v>
       </c>
       <c r="U13" t="n">
-        <v>64.24262914177295</v>
+        <v>64.24262914177298</v>
       </c>
       <c r="V13" t="n">
-        <v>38.0637077343724</v>
+        <v>38.06370773437243</v>
       </c>
       <c r="W13" t="n">
-        <v>63.23059380498566</v>
+        <v>63.23059380498569</v>
       </c>
       <c r="X13" t="n">
-        <v>8.875695800788776</v>
+        <v>8.875695800788804</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>131.6224207170393</v>
       </c>
       <c r="C14" t="n">
-        <v>11.30283095546724</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="H14" t="n">
-        <v>104.630197212101</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>115.9330281675681</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.6224207170393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>6.047422663360152</v>
+        <v>6.047422663360209</v>
       </c>
       <c r="W15" t="n">
-        <v>18.83846641623384</v>
+        <v>18.8384664162339</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>9.884882276754366</v>
+        <v>9.884882276754423</v>
       </c>
       <c r="U16" t="n">
-        <v>64.24262914177295</v>
+        <v>64.24262914177301</v>
       </c>
       <c r="V16" t="n">
-        <v>38.0637077343724</v>
+        <v>38.06370773437246</v>
       </c>
       <c r="W16" t="n">
-        <v>63.23059380498566</v>
+        <v>63.23059380498572</v>
       </c>
       <c r="X16" t="n">
-        <v>8.875695800788776</v>
+        <v>8.875695800788833</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.18608130266739</v>
+        <v>60.18608130266733</v>
       </c>
       <c r="C17" t="n">
-        <v>48.19739826034913</v>
+        <v>48.19739826034908</v>
       </c>
       <c r="D17" t="n">
-        <v>39.17870230487711</v>
+        <v>39.17870230487705</v>
       </c>
       <c r="E17" t="n">
-        <v>60.92083987478264</v>
+        <v>60.92083987478259</v>
       </c>
       <c r="F17" t="n">
-        <v>80.09265596275981</v>
+        <v>80.09265596275975</v>
       </c>
       <c r="G17" t="n">
-        <v>81.55736574630231</v>
+        <v>81.55736574630227</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.692458542846509</v>
+        <v>3.692458542846452</v>
       </c>
       <c r="W17" t="n">
-        <v>28.99255802080341</v>
+        <v>28.99255802080336</v>
       </c>
       <c r="X17" t="n">
-        <v>48.29281625355003</v>
+        <v>48.29281625354997</v>
       </c>
       <c r="Y17" t="n">
-        <v>59.68941404974879</v>
+        <v>59.68941404974833</v>
       </c>
     </row>
     <row r="18">
@@ -2084,7 +2084,7 @@
         <v>48.19739826034908</v>
       </c>
       <c r="D20" t="n">
-        <v>39.17870230487733</v>
+        <v>39.17870230487705</v>
       </c>
       <c r="E20" t="n">
         <v>60.92083987478259</v>
@@ -2330,7 +2330,7 @@
         <v>80.09265596275975</v>
       </c>
       <c r="G23" t="n">
-        <v>81.55736574630225</v>
+        <v>81.55736574630227</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2558,19 +2558,19 @@
         <v>168.9861597674353</v>
       </c>
       <c r="D26" t="n">
-        <v>159.9674638119633</v>
+        <v>159.9674638119632</v>
       </c>
       <c r="E26" t="n">
         <v>181.7096013818688</v>
       </c>
       <c r="F26" t="n">
-        <v>200.881417469846</v>
+        <v>200.8814174698459</v>
       </c>
       <c r="G26" t="n">
-        <v>202.3461272533885</v>
+        <v>202.3461272533884</v>
       </c>
       <c r="H26" t="n">
-        <v>115.5661795618048</v>
+        <v>115.5661795618047</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>10.93598234970379</v>
+        <v>10.93598234970376</v>
       </c>
       <c r="U26" t="n">
-        <v>43.17073696095009</v>
+        <v>43.17073696095006</v>
       </c>
       <c r="V26" t="n">
-        <v>124.4812200499327</v>
+        <v>124.4812200499326</v>
       </c>
       <c r="W26" t="n">
-        <v>149.7813195278896</v>
+        <v>149.7813195278895</v>
       </c>
       <c r="X26" t="n">
         <v>169.0815777606362</v>
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>7.165089697960967</v>
+        <v>7.165089697960939</v>
       </c>
       <c r="V27" t="n">
-        <v>16.98340501306396</v>
+        <v>16.98340501306393</v>
       </c>
       <c r="W27" t="n">
-        <v>29.77444876593765</v>
+        <v>29.77444876593762</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>20.82086462645817</v>
+        <v>20.82086462645815</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17861149147676</v>
+        <v>75.17861149147673</v>
       </c>
       <c r="V28" t="n">
-        <v>48.99969008407621</v>
+        <v>48.99969008407618</v>
       </c>
       <c r="W28" t="n">
-        <v>74.16657615468947</v>
+        <v>74.16657615468944</v>
       </c>
       <c r="X28" t="n">
-        <v>19.81167815049258</v>
+        <v>19.81167815049255</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.68654590656027</v>
+        <v>10.68654590656024</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2792,22 @@
         <v>180.9748428097535</v>
       </c>
       <c r="C29" t="n">
-        <v>168.9861597674353</v>
+        <v>168.9861597674352</v>
       </c>
       <c r="D29" t="n">
-        <v>159.9674638119633</v>
+        <v>159.9674638119632</v>
       </c>
       <c r="E29" t="n">
-        <v>181.7096013818688</v>
+        <v>181.7096013818687</v>
       </c>
       <c r="F29" t="n">
-        <v>200.881417469846</v>
+        <v>200.8814174698459</v>
       </c>
       <c r="G29" t="n">
-        <v>202.3461272533885</v>
+        <v>202.3461272533884</v>
       </c>
       <c r="H29" t="n">
-        <v>115.5661795618048</v>
+        <v>115.5661795618047</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.93598234970379</v>
+        <v>10.93598234970371</v>
       </c>
       <c r="U29" t="n">
-        <v>43.17073696095009</v>
+        <v>43.17073696095</v>
       </c>
       <c r="V29" t="n">
-        <v>124.4812200499327</v>
+        <v>124.4812200499326</v>
       </c>
       <c r="W29" t="n">
-        <v>149.7813195278896</v>
+        <v>149.7813195278895</v>
       </c>
       <c r="X29" t="n">
-        <v>169.0815777606362</v>
+        <v>169.0815777606361</v>
       </c>
       <c r="Y29" t="n">
         <v>180.4781755568349</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>7.165089697960967</v>
+        <v>7.165089697960882</v>
       </c>
       <c r="V30" t="n">
-        <v>16.98340501306396</v>
+        <v>16.98340501306387</v>
       </c>
       <c r="W30" t="n">
-        <v>29.77444876593765</v>
+        <v>29.77444876593756</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>20.82086462645817</v>
+        <v>20.82086462645809</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17861149147676</v>
+        <v>75.17861149147667</v>
       </c>
       <c r="V31" t="n">
-        <v>48.99969008407621</v>
+        <v>48.99969008407612</v>
       </c>
       <c r="W31" t="n">
-        <v>74.16657615468947</v>
+        <v>74.16657615468938</v>
       </c>
       <c r="X31" t="n">
-        <v>19.81167815049258</v>
+        <v>19.8116781504925</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.68654590656027</v>
+        <v>10.68654590656018</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.9748428097536</v>
+        <v>180.9748428097535</v>
       </c>
       <c r="C32" t="n">
         <v>168.9861597674353</v>
@@ -3083,7 +3083,7 @@
         <v>10.93598234970381</v>
       </c>
       <c r="U32" t="n">
-        <v>43.17073696095011</v>
+        <v>43.17073696095008</v>
       </c>
       <c r="V32" t="n">
         <v>124.4812200499327</v>
@@ -3095,7 +3095,7 @@
         <v>169.0815777606362</v>
       </c>
       <c r="Y32" t="n">
-        <v>180.478175556835</v>
+        <v>180.4781755568349</v>
       </c>
     </row>
     <row r="33">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>7.165089697960996</v>
+        <v>7.165089697960967</v>
       </c>
       <c r="V33" t="n">
-        <v>16.98340501306399</v>
+        <v>16.98340501306396</v>
       </c>
       <c r="W33" t="n">
-        <v>29.77444876593768</v>
+        <v>29.77444876593765</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>20.8208646264582</v>
+        <v>20.82086462645817</v>
       </c>
       <c r="U34" t="n">
-        <v>75.17861149147679</v>
+        <v>75.17861149147676</v>
       </c>
       <c r="V34" t="n">
-        <v>48.99969008407624</v>
+        <v>48.99969008407621</v>
       </c>
       <c r="W34" t="n">
-        <v>74.16657615468949</v>
+        <v>74.16657615468947</v>
       </c>
       <c r="X34" t="n">
-        <v>19.81167815049261</v>
+        <v>19.81167815049258</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.6865459065603</v>
+        <v>10.68654590656027</v>
       </c>
     </row>
     <row r="35">
@@ -3269,19 +3269,19 @@
         <v>127.3308007700201</v>
       </c>
       <c r="D35" t="n">
-        <v>118.3121048145481</v>
+        <v>118.312104814548</v>
       </c>
       <c r="E35" t="n">
         <v>140.0542423844536</v>
       </c>
       <c r="F35" t="n">
-        <v>159.2260584724308</v>
+        <v>159.2260584724307</v>
       </c>
       <c r="G35" t="n">
-        <v>160.6907682559733</v>
+        <v>160.6907682559732</v>
       </c>
       <c r="H35" t="n">
-        <v>73.91082056438958</v>
+        <v>73.91082056438955</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.515377963534888</v>
+        <v>1.51537796353486</v>
       </c>
       <c r="V35" t="n">
-        <v>82.82586105251747</v>
+        <v>82.82586105251744</v>
       </c>
       <c r="W35" t="n">
-        <v>108.1259605304744</v>
+        <v>108.1259605304743</v>
       </c>
       <c r="X35" t="n">
         <v>127.426218763221</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>33.52325249406157</v>
+        <v>33.52325249406154</v>
       </c>
       <c r="V37" t="n">
-        <v>7.344331086661015</v>
+        <v>7.344331086660986</v>
       </c>
       <c r="W37" t="n">
-        <v>32.51121715727427</v>
+        <v>32.51121715727425</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,19 +3506,19 @@
         <v>127.3308007700201</v>
       </c>
       <c r="D38" t="n">
-        <v>118.3121048145481</v>
+        <v>118.312104814548</v>
       </c>
       <c r="E38" t="n">
         <v>140.0542423844536</v>
       </c>
       <c r="F38" t="n">
-        <v>159.2260584724308</v>
+        <v>159.2260584724307</v>
       </c>
       <c r="G38" t="n">
-        <v>160.6907682559733</v>
+        <v>160.6907682559732</v>
       </c>
       <c r="H38" t="n">
-        <v>73.91082056438957</v>
+        <v>73.91082056438954</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.515377963534899</v>
+        <v>1.51537796353487</v>
       </c>
       <c r="V38" t="n">
-        <v>82.82586105251747</v>
+        <v>82.82586105251744</v>
       </c>
       <c r="W38" t="n">
-        <v>108.1259605304744</v>
+        <v>108.1259605304743</v>
       </c>
       <c r="X38" t="n">
         <v>127.426218763221</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>33.52325249406157</v>
+        <v>33.52325249406154</v>
       </c>
       <c r="V40" t="n">
-        <v>7.344331086661015</v>
+        <v>7.344331086660986</v>
       </c>
       <c r="W40" t="n">
-        <v>32.51121715727427</v>
+        <v>32.51121715727425</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,13 +3740,13 @@
         <v>139.3194838123383</v>
       </c>
       <c r="C41" t="n">
-        <v>127.3308007700201</v>
+        <v>127.33080077002</v>
       </c>
       <c r="D41" t="n">
         <v>118.312104814548</v>
       </c>
       <c r="E41" t="n">
-        <v>140.0542423844536</v>
+        <v>140.0542423844535</v>
       </c>
       <c r="F41" t="n">
         <v>159.2260584724307</v>
@@ -3755,7 +3755,7 @@
         <v>160.6907682559732</v>
       </c>
       <c r="H41" t="n">
-        <v>73.91082056438954</v>
+        <v>73.91082056438948</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.51537796353487</v>
+        <v>1.515377963534813</v>
       </c>
       <c r="V41" t="n">
-        <v>82.82586105251744</v>
+        <v>82.82586105251738</v>
       </c>
       <c r="W41" t="n">
         <v>108.1259605304743</v>
       </c>
       <c r="X41" t="n">
-        <v>127.426218763221</v>
+        <v>127.4262187632209</v>
       </c>
       <c r="Y41" t="n">
         <v>138.8228165594197</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>33.52325249406154</v>
+        <v>33.52325249406148</v>
       </c>
       <c r="V43" t="n">
-        <v>7.344331086660986</v>
+        <v>7.344331086660929</v>
       </c>
       <c r="W43" t="n">
-        <v>32.51121715727425</v>
+        <v>32.51121715727419</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>139.3194838123383</v>
       </c>
       <c r="C44" t="n">
-        <v>127.3308007700201</v>
+        <v>127.33080077002</v>
       </c>
       <c r="D44" t="n">
         <v>118.312104814548</v>
       </c>
       <c r="E44" t="n">
-        <v>140.0542423844536</v>
+        <v>140.0542423844535</v>
       </c>
       <c r="F44" t="n">
         <v>159.2260584724307</v>
       </c>
       <c r="G44" t="n">
-        <v>160.6907682559732</v>
+        <v>160.6907682559728</v>
       </c>
       <c r="H44" t="n">
-        <v>73.91082056438955</v>
+        <v>73.9108205643895</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1.51537796353487</v>
+        <v>1.515377963534803</v>
       </c>
       <c r="V44" t="n">
-        <v>82.82586105251744</v>
+        <v>82.82586105251738</v>
       </c>
       <c r="W44" t="n">
         <v>108.1259605304743</v>
       </c>
       <c r="X44" t="n">
-        <v>127.426218763221</v>
+        <v>127.4262187632209</v>
       </c>
       <c r="Y44" t="n">
-        <v>138.8228165594195</v>
+        <v>138.8228165594197</v>
       </c>
     </row>
     <row r="45">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>33.52325249406154</v>
+        <v>33.52325249406148</v>
       </c>
       <c r="V46" t="n">
-        <v>7.344331086660986</v>
+        <v>7.344331086660929</v>
       </c>
       <c r="W46" t="n">
-        <v>32.51121715727425</v>
+        <v>32.51121715727419</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>228.0254444385359</v>
+        <v>246.2852252635973</v>
       </c>
       <c r="C11" t="n">
-        <v>143.4817337755847</v>
+        <v>246.2852252635973</v>
       </c>
       <c r="D11" t="n">
-        <v>143.4817337755847</v>
+        <v>113.3332851453756</v>
       </c>
       <c r="E11" t="n">
-        <v>143.4817337755847</v>
+        <v>113.3332851453756</v>
       </c>
       <c r="F11" t="n">
-        <v>143.4817337755847</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="G11" t="n">
         <v>10.52979365736315</v>
@@ -5036,31 +5036,31 @@
         <v>10.52979365736315</v>
       </c>
       <c r="I11" t="n">
-        <v>76.8987041667709</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="J11" t="n">
-        <v>188.5041073150231</v>
+        <v>32.20772120507165</v>
       </c>
       <c r="K11" t="n">
-        <v>288.3392602935578</v>
+        <v>32.20772120507165</v>
       </c>
       <c r="L11" t="n">
-        <v>288.3392602935578</v>
+        <v>133.6292771003078</v>
       </c>
       <c r="M11" t="n">
-        <v>288.3392602935578</v>
+        <v>247.6600848389763</v>
       </c>
       <c r="N11" t="n">
-        <v>363.7594887329754</v>
+        <v>363.7594887329755</v>
       </c>
       <c r="O11" t="n">
-        <v>363.7594887329754</v>
+        <v>363.7594887329755</v>
       </c>
       <c r="P11" t="n">
-        <v>363.7594887329754</v>
+        <v>363.7594887329755</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.8989656364336</v>
+        <v>452.8989656364337</v>
       </c>
       <c r="R11" t="n">
         <v>526.4896828681574</v>
@@ -5075,16 +5075,16 @@
         <v>493.9293246749793</v>
       </c>
       <c r="V11" t="n">
-        <v>493.9293246749793</v>
+        <v>379.2371653818188</v>
       </c>
       <c r="W11" t="n">
-        <v>360.9773845567574</v>
+        <v>246.2852252635973</v>
       </c>
       <c r="X11" t="n">
-        <v>360.9773845567574</v>
+        <v>246.2852252635973</v>
       </c>
       <c r="Y11" t="n">
-        <v>360.9773845567574</v>
+        <v>246.2852252635973</v>
       </c>
     </row>
     <row r="12">
@@ -5103,58 +5103,58 @@
         <v>10.52979365736315</v>
       </c>
       <c r="E12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="F12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="G12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="H12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="I12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="J12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="K12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="L12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="M12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="N12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="O12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="P12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="R12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="S12" t="n">
-        <v>10.52979365736315</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="T12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="U12" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392279</v>
       </c>
       <c r="V12" t="n">
-        <v>29.55854761315491</v>
+        <v>29.55854761315494</v>
       </c>
       <c r="W12" t="n">
         <v>10.52979365736315</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.77673573607525</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="C13" t="n">
-        <v>10.77673573607525</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="D13" t="n">
-        <v>10.77673573607525</v>
+        <v>78.36763238541469</v>
       </c>
       <c r="E13" t="n">
-        <v>66.38269690373073</v>
+        <v>133.1764258652567</v>
       </c>
       <c r="F13" t="n">
-        <v>66.38269690373073</v>
+        <v>133.1764258652567</v>
       </c>
       <c r="G13" t="n">
-        <v>66.38269690373073</v>
+        <v>133.1764258652567</v>
       </c>
       <c r="H13" t="n">
-        <v>66.38269690373073</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="I13" t="n">
-        <v>66.38269690373073</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="J13" t="n">
-        <v>66.38269690373073</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="K13" t="n">
-        <v>66.38269690373073</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="L13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="M13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="N13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="O13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="P13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="Q13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="R13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="S13" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934135998</v>
       </c>
       <c r="T13" t="n">
-        <v>186.7041638411205</v>
+        <v>186.7041638411206</v>
       </c>
       <c r="U13" t="n">
-        <v>121.8126192534711</v>
+        <v>121.8126192534712</v>
       </c>
       <c r="V13" t="n">
-        <v>83.36442962279187</v>
+        <v>83.36442962279193</v>
       </c>
       <c r="W13" t="n">
-        <v>19.49514295108919</v>
+        <v>19.49514295108921</v>
       </c>
       <c r="X13" t="n">
         <v>10.52979365736315</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.77673573607525</v>
+        <v>10.52979365736315</v>
       </c>
     </row>
     <row r="14">
@@ -5252,55 +5252,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>260.5858026317143</v>
+        <v>276.4336738938063</v>
       </c>
       <c r="C14" t="n">
-        <v>249.1688016665958</v>
+        <v>276.4336738938063</v>
       </c>
       <c r="D14" t="n">
-        <v>249.1688016665958</v>
+        <v>276.4336738938063</v>
       </c>
       <c r="E14" t="n">
-        <v>116.2168615483743</v>
+        <v>143.4817337755847</v>
       </c>
       <c r="F14" t="n">
-        <v>116.2168615483743</v>
+        <v>143.4817337755847</v>
       </c>
       <c r="G14" t="n">
-        <v>116.2168615483743</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="H14" t="n">
         <v>10.52979365736315</v>
       </c>
       <c r="I14" t="n">
-        <v>76.8987041667709</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="J14" t="n">
-        <v>76.8987041667709</v>
+        <v>122.1351968056153</v>
       </c>
       <c r="K14" t="n">
-        <v>176.7338571453055</v>
+        <v>221.9703497841498</v>
       </c>
       <c r="L14" t="n">
-        <v>278.1554130405418</v>
+        <v>247.6600848389764</v>
       </c>
       <c r="M14" t="n">
-        <v>281.4835725437451</v>
+        <v>247.6600848389764</v>
       </c>
       <c r="N14" t="n">
-        <v>281.4835725437451</v>
+        <v>363.7594887329756</v>
       </c>
       <c r="O14" t="n">
-        <v>392.4192281584876</v>
+        <v>363.7594887329756</v>
       </c>
       <c r="P14" t="n">
-        <v>392.4192281584876</v>
+        <v>363.7594887329756</v>
       </c>
       <c r="Q14" t="n">
-        <v>481.5587050619458</v>
+        <v>452.8989656364337</v>
       </c>
       <c r="R14" t="n">
-        <v>481.5587050619458</v>
+        <v>526.4896828681574</v>
       </c>
       <c r="S14" t="n">
         <v>526.4896828681574</v>
@@ -5315,13 +5315,13 @@
         <v>526.4896828681574</v>
       </c>
       <c r="W14" t="n">
-        <v>526.4896828681574</v>
+        <v>409.3856140120278</v>
       </c>
       <c r="X14" t="n">
-        <v>526.4896828681574</v>
+        <v>409.3856140120278</v>
       </c>
       <c r="Y14" t="n">
-        <v>393.5377427499358</v>
+        <v>409.3856140120278</v>
       </c>
     </row>
     <row r="15">
@@ -5361,37 +5361,37 @@
         <v>10.52979365736315</v>
       </c>
       <c r="L15" t="n">
-        <v>35.66705535392273</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="M15" t="n">
-        <v>35.66705535392273</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="N15" t="n">
-        <v>35.66705535392273</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="O15" t="n">
-        <v>35.66705535392273</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="P15" t="n">
-        <v>35.66705535392273</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392285</v>
       </c>
       <c r="R15" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392285</v>
       </c>
       <c r="S15" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392285</v>
       </c>
       <c r="T15" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392285</v>
       </c>
       <c r="U15" t="n">
-        <v>35.66705535392273</v>
+        <v>35.66705535392285</v>
       </c>
       <c r="V15" t="n">
-        <v>29.55854761315491</v>
+        <v>29.55854761315496</v>
       </c>
       <c r="W15" t="n">
         <v>10.52979365736315</v>
@@ -5437,43 +5437,43 @@
         <v>10.52979365736315</v>
       </c>
       <c r="K16" t="n">
-        <v>66.38269690373073</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="L16" t="n">
-        <v>66.38269690373073</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="M16" t="n">
-        <v>66.38269690373073</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="N16" t="n">
-        <v>66.38269690373073</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="O16" t="n">
-        <v>196.6888934135997</v>
+        <v>140.8359901672321</v>
       </c>
       <c r="P16" t="n">
-        <v>196.6888934135997</v>
+        <v>140.8359901672321</v>
       </c>
       <c r="Q16" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934136</v>
       </c>
       <c r="R16" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934136</v>
       </c>
       <c r="S16" t="n">
-        <v>196.6888934135997</v>
+        <v>196.6888934136</v>
       </c>
       <c r="T16" t="n">
-        <v>186.7041638411205</v>
+        <v>186.7041638411208</v>
       </c>
       <c r="U16" t="n">
-        <v>121.8126192534711</v>
+        <v>121.8126192534712</v>
       </c>
       <c r="V16" t="n">
-        <v>83.36442962279187</v>
+        <v>83.36442962279199</v>
       </c>
       <c r="W16" t="n">
-        <v>19.49514295108919</v>
+        <v>19.49514295108924</v>
       </c>
       <c r="X16" t="n">
         <v>10.52979365736315</v>
@@ -5489,61 +5489,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>323.6075332018786</v>
+        <v>323.6075332018791</v>
       </c>
       <c r="C17" t="n">
-        <v>274.9232925348593</v>
+        <v>274.9232925348598</v>
       </c>
       <c r="D17" t="n">
-        <v>235.3488457622561</v>
+        <v>235.3488457622567</v>
       </c>
       <c r="E17" t="n">
-        <v>173.8126438685363</v>
+        <v>173.8126438685369</v>
       </c>
       <c r="F17" t="n">
-        <v>92.91097117888063</v>
+        <v>92.91097117888059</v>
       </c>
       <c r="G17" t="n">
         <v>10.52979365736315</v>
       </c>
       <c r="H17" t="n">
-        <v>15.70014978319172</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="I17" t="n">
-        <v>146.0063462930607</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="J17" t="n">
-        <v>146.0063462930607</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="K17" t="n">
-        <v>146.0063462930607</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="L17" t="n">
-        <v>146.0063462930607</v>
+        <v>135.5710933385505</v>
       </c>
       <c r="M17" t="n">
-        <v>146.0063462930607</v>
+        <v>265.8772898484194</v>
       </c>
       <c r="N17" t="n">
-        <v>276.3125428029297</v>
+        <v>265.8772898484194</v>
       </c>
       <c r="O17" t="n">
-        <v>340.8935872016742</v>
+        <v>265.8772898484194</v>
       </c>
       <c r="P17" t="n">
-        <v>340.8935872016742</v>
+        <v>396.1834863582884</v>
       </c>
       <c r="Q17" t="n">
-        <v>340.8935872016742</v>
+        <v>526.4896828681574</v>
       </c>
       <c r="R17" t="n">
-        <v>340.8935872016742</v>
+        <v>526.4896828681574</v>
       </c>
       <c r="S17" t="n">
-        <v>340.8935872016742</v>
+        <v>526.4896828681574</v>
       </c>
       <c r="T17" t="n">
-        <v>449.6478385674827</v>
+        <v>526.4896828681574</v>
       </c>
       <c r="U17" t="n">
         <v>526.4896828681574</v>
@@ -5552,13 +5552,13 @@
         <v>522.759926764272</v>
       </c>
       <c r="W17" t="n">
-        <v>493.4745146220463</v>
+        <v>493.4745146220464</v>
       </c>
       <c r="X17" t="n">
-        <v>444.6938921437128</v>
+        <v>444.6938921437131</v>
       </c>
       <c r="Y17" t="n">
-        <v>384.4015547197241</v>
+        <v>384.4015547197249</v>
       </c>
     </row>
     <row r="18">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>323.6075332018784</v>
+        <v>323.6075332018786</v>
       </c>
       <c r="C20" t="n">
-        <v>274.9232925348591</v>
+        <v>274.9232925348593</v>
       </c>
       <c r="D20" t="n">
-        <v>235.3488457622568</v>
+        <v>235.3488457622561</v>
       </c>
       <c r="E20" t="n">
-        <v>173.812643868537</v>
+        <v>173.8126438685363</v>
       </c>
       <c r="F20" t="n">
         <v>92.91097117888057</v>
@@ -5750,31 +5750,31 @@
         <v>10.52979365736315</v>
       </c>
       <c r="J20" t="n">
-        <v>10.52979365736315</v>
+        <v>140.8359901672321</v>
       </c>
       <c r="K20" t="n">
-        <v>10.52979365736315</v>
+        <v>140.8359901672321</v>
       </c>
       <c r="L20" t="n">
-        <v>135.5710933385505</v>
+        <v>140.8359901672321</v>
       </c>
       <c r="M20" t="n">
-        <v>135.5710933385505</v>
+        <v>140.8359901672321</v>
       </c>
       <c r="N20" t="n">
-        <v>265.8772898484194</v>
+        <v>271.1421866771011</v>
       </c>
       <c r="O20" t="n">
-        <v>265.8772898484194</v>
+        <v>396.1834863582884</v>
       </c>
       <c r="P20" t="n">
-        <v>265.8772898484194</v>
+        <v>526.4896828681574</v>
       </c>
       <c r="Q20" t="n">
-        <v>265.8772898484194</v>
+        <v>526.4896828681574</v>
       </c>
       <c r="R20" t="n">
-        <v>396.1834863582884</v>
+        <v>526.4896828681574</v>
       </c>
       <c r="S20" t="n">
         <v>526.4896828681574</v>
@@ -5789,13 +5789,13 @@
         <v>522.759926764272</v>
       </c>
       <c r="W20" t="n">
-        <v>493.4745146220463</v>
+        <v>493.4745146220464</v>
       </c>
       <c r="X20" t="n">
-        <v>444.693892143713</v>
+        <v>444.6938921437131</v>
       </c>
       <c r="Y20" t="n">
-        <v>384.4015547197242</v>
+        <v>384.4015547197244</v>
       </c>
     </row>
     <row r="21">
@@ -5975,34 +5975,34 @@
         <v>173.8126438685366</v>
       </c>
       <c r="F23" t="n">
-        <v>92.91097117888057</v>
+        <v>92.91097117888029</v>
       </c>
       <c r="G23" t="n">
+        <v>10.52979365736284</v>
+      </c>
+      <c r="H23" t="n">
         <v>10.52979365736315</v>
       </c>
-      <c r="H23" t="n">
-        <v>15.70014978319178</v>
-      </c>
       <c r="I23" t="n">
-        <v>15.70014978319178</v>
+        <v>10.52979365736315</v>
       </c>
       <c r="J23" t="n">
-        <v>15.70014978319178</v>
+        <v>58.72924903787572</v>
       </c>
       <c r="K23" t="n">
-        <v>15.70014978319178</v>
+        <v>58.72924903787572</v>
       </c>
       <c r="L23" t="n">
-        <v>15.70014978319178</v>
+        <v>189.0354455477447</v>
       </c>
       <c r="M23" t="n">
-        <v>58.72924903787572</v>
+        <v>189.0354455477447</v>
       </c>
       <c r="N23" t="n">
-        <v>58.72924903787572</v>
+        <v>189.0354455477447</v>
       </c>
       <c r="O23" t="n">
-        <v>189.0354455477447</v>
+        <v>319.3416420576136</v>
       </c>
       <c r="P23" t="n">
         <v>319.3416420576136</v>
@@ -6023,16 +6023,16 @@
         <v>526.4896828681574</v>
       </c>
       <c r="V23" t="n">
-        <v>522.759926764272</v>
+        <v>522.7599267642721</v>
       </c>
       <c r="W23" t="n">
-        <v>493.4745146220463</v>
+        <v>493.4745146220465</v>
       </c>
       <c r="X23" t="n">
-        <v>444.693892143713</v>
+        <v>444.6938921437132</v>
       </c>
       <c r="Y23" t="n">
-        <v>384.4015547197243</v>
+        <v>384.4015547197246</v>
       </c>
     </row>
     <row r="24">
@@ -6203,52 +6203,52 @@
         <v>1078.782752367161</v>
       </c>
       <c r="C26" t="n">
-        <v>908.0896616929844</v>
+        <v>908.0896616929846</v>
       </c>
       <c r="D26" t="n">
-        <v>746.5063649132235</v>
+        <v>746.5063649132237</v>
       </c>
       <c r="E26" t="n">
-        <v>562.961313012346</v>
+        <v>562.9613130123462</v>
       </c>
       <c r="F26" t="n">
-        <v>360.0507903155319</v>
+        <v>360.0507903155321</v>
       </c>
       <c r="G26" t="n">
-        <v>155.6607627868572</v>
+        <v>155.6607627868571</v>
       </c>
       <c r="H26" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I26" t="n">
-        <v>94.46953606116443</v>
+        <v>66.9886021276232</v>
       </c>
       <c r="J26" t="n">
-        <v>195.2483166832099</v>
+        <v>66.9886021276232</v>
       </c>
       <c r="K26" t="n">
-        <v>290.9924703740288</v>
+        <v>155.9971325799511</v>
       </c>
       <c r="L26" t="n">
-        <v>290.9924703740288</v>
+        <v>246.5920659489805</v>
       </c>
       <c r="M26" t="n">
-        <v>772.7171653388264</v>
+        <v>349.7962511614423</v>
       </c>
       <c r="N26" t="n">
-        <v>877.9899467066189</v>
+        <v>831.5209461262398</v>
       </c>
       <c r="O26" t="n">
-        <v>1359.714641671417</v>
+        <v>931.6299792147754</v>
       </c>
       <c r="P26" t="n">
-        <v>1447.459029459578</v>
+        <v>1413.354674179573</v>
       </c>
       <c r="Q26" t="n">
-        <v>1799.021276816127</v>
+        <v>1764.916921536122</v>
       </c>
       <c r="R26" t="n">
-        <v>1946.362403898172</v>
+        <v>1912.258048618167</v>
       </c>
       <c r="S26" t="n">
         <v>1946.362403898172</v>
@@ -6263,10 +6263,10 @@
         <v>1765.970545958186</v>
       </c>
       <c r="W26" t="n">
-        <v>1614.676283808802</v>
+        <v>1614.676283808803</v>
       </c>
       <c r="X26" t="n">
-        <v>1443.886811323311</v>
+        <v>1443.886811323312</v>
       </c>
       <c r="Y26" t="n">
         <v>1261.585623892165</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="C27" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="D27" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="E27" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="F27" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="G27" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="H27" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I27" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="J27" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="K27" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="L27" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="M27" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="N27" t="n">
-        <v>93.39486775166301</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="O27" t="n">
-        <v>93.39486775166301</v>
+        <v>93.39486775166291</v>
       </c>
       <c r="P27" t="n">
-        <v>93.39486775166301</v>
+        <v>93.39486775166291</v>
       </c>
       <c r="Q27" t="n">
-        <v>93.39486775166301</v>
+        <v>93.39486775166291</v>
       </c>
       <c r="R27" t="n">
-        <v>93.39486775166301</v>
+        <v>93.39486775166291</v>
       </c>
       <c r="S27" t="n">
-        <v>93.39486775166301</v>
+        <v>93.39486775166291</v>
       </c>
       <c r="T27" t="n">
-        <v>93.39486775166301</v>
+        <v>93.39486775166291</v>
       </c>
       <c r="U27" t="n">
-        <v>86.1574034102883</v>
+        <v>86.15740341028823</v>
       </c>
       <c r="V27" t="n">
-        <v>69.00244885163784</v>
+        <v>69.00244885163779</v>
       </c>
       <c r="W27" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="X27" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="Y27" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="C28" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="D28" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="E28" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="F28" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="G28" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="H28" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I28" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="J28" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="K28" t="n">
-        <v>38.92724807796345</v>
+        <v>166.3639803254792</v>
       </c>
       <c r="L28" t="n">
-        <v>38.92724807796345</v>
+        <v>166.3639803254792</v>
       </c>
       <c r="M28" t="n">
-        <v>67.10128467336371</v>
+        <v>166.3639803254792</v>
       </c>
       <c r="N28" t="n">
-        <v>67.10128467336371</v>
+        <v>166.3639803254792</v>
       </c>
       <c r="O28" t="n">
-        <v>67.10128467336371</v>
+        <v>221.2664822235803</v>
       </c>
       <c r="P28" t="n">
-        <v>188.5192975536257</v>
+        <v>221.2664822235803</v>
       </c>
       <c r="Q28" t="n">
-        <v>291.1130727383205</v>
+        <v>221.2664822235803</v>
       </c>
       <c r="R28" t="n">
-        <v>291.1130727383205</v>
+        <v>291.1130727383203</v>
       </c>
       <c r="S28" t="n">
-        <v>291.1130727383205</v>
+        <v>291.1130727383203</v>
       </c>
       <c r="T28" t="n">
-        <v>270.0818963479587</v>
+        <v>270.0818963479585</v>
       </c>
       <c r="U28" t="n">
-        <v>194.1439049424266</v>
+        <v>194.1439049424265</v>
       </c>
       <c r="V28" t="n">
-        <v>144.6492684938648</v>
+        <v>144.6492684938647</v>
       </c>
       <c r="W28" t="n">
-        <v>69.73353500427946</v>
+        <v>69.73353500427939</v>
       </c>
       <c r="X28" t="n">
-        <v>49.72173889267079</v>
+        <v>49.72173889267075</v>
       </c>
       <c r="Y28" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1078.782752367162</v>
+        <v>1078.782752367161</v>
       </c>
       <c r="C29" t="n">
-        <v>908.0896616929846</v>
+        <v>908.0896616929845</v>
       </c>
       <c r="D29" t="n">
         <v>746.5063649132237</v>
       </c>
       <c r="E29" t="n">
-        <v>562.9613130123462</v>
+        <v>562.9613130123461</v>
       </c>
       <c r="F29" t="n">
         <v>360.0507903155321</v>
       </c>
       <c r="G29" t="n">
-        <v>155.6607627868572</v>
+        <v>155.6607627868571</v>
       </c>
       <c r="H29" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I29" t="n">
-        <v>94.46953606116443</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="J29" t="n">
-        <v>94.46953606116443</v>
+        <v>357.3333724264679</v>
       </c>
       <c r="K29" t="n">
-        <v>183.4780665134923</v>
+        <v>839.0580673912654</v>
       </c>
       <c r="L29" t="n">
-        <v>333.1514429304698</v>
+        <v>1320.782762356063</v>
       </c>
       <c r="M29" t="n">
-        <v>814.8761378952674</v>
+        <v>1320.782762356063</v>
       </c>
       <c r="N29" t="n">
-        <v>920.14891926306</v>
+        <v>1426.055543723855</v>
       </c>
       <c r="O29" t="n">
-        <v>1401.873614227858</v>
+        <v>1526.164576812391</v>
       </c>
       <c r="P29" t="n">
-        <v>1883.598309192655</v>
+        <v>1526.164576812391</v>
       </c>
       <c r="Q29" t="n">
-        <v>1883.598309192655</v>
+        <v>1872.759500569984</v>
       </c>
       <c r="R29" t="n">
-        <v>1946.362403898172</v>
+        <v>1935.523595275501</v>
       </c>
       <c r="S29" t="n">
         <v>1946.362403898172</v>
@@ -6494,7 +6494,7 @@
         <v>1935.31595708029</v>
       </c>
       <c r="U29" t="n">
-        <v>1891.70915206923</v>
+        <v>1891.709152069229</v>
       </c>
       <c r="V29" t="n">
         <v>1765.970545958186</v>
@@ -6503,7 +6503,7 @@
         <v>1614.676283808803</v>
       </c>
       <c r="X29" t="n">
-        <v>1443.886811323312</v>
+        <v>1443.886811323311</v>
       </c>
       <c r="Y29" t="n">
         <v>1261.585623892165</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="C30" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="D30" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="E30" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="F30" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="G30" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="H30" t="n">
-        <v>38.92724807796345</v>
+        <v>93.39486775166274</v>
       </c>
       <c r="I30" t="n">
-        <v>38.92724807796345</v>
+        <v>93.39486775166274</v>
       </c>
       <c r="J30" t="n">
-        <v>38.92724807796345</v>
+        <v>93.39486775166274</v>
       </c>
       <c r="K30" t="n">
-        <v>93.39486775166301</v>
+        <v>93.39486775166274</v>
       </c>
       <c r="L30" t="n">
-        <v>93.39486775166301</v>
+        <v>93.39486775166274</v>
       </c>
       <c r="M30" t="n">
-        <v>93.39486775166301</v>
+        <v>93.39486775166274</v>
       </c>
       <c r="N30" t="n">
-        <v>93.39486775166301</v>
+        <v>93.39486775166274</v>
       </c>
       <c r="O30" t="n">
-        <v>93.39486775166301</v>
+        <v>93.39486775166274</v>
       </c>
       <c r="P30" t="n">
-        <v>93.39486775166301</v>
+        <v>93.39486775166274</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.39486775166301</v>
+        <v>93.39486775166274</v>
       </c>
       <c r="R30" t="n">
-        <v>93.39486775166301</v>
+        <v>93.39486775166274</v>
       </c>
       <c r="S30" t="n">
-        <v>93.39486775166301</v>
+        <v>93.39486775166274</v>
       </c>
       <c r="T30" t="n">
-        <v>93.39486775166301</v>
+        <v>93.39486775166274</v>
       </c>
       <c r="U30" t="n">
-        <v>86.1574034102883</v>
+        <v>86.15740341028811</v>
       </c>
       <c r="V30" t="n">
-        <v>69.00244885163784</v>
+        <v>69.00244885163774</v>
       </c>
       <c r="W30" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="X30" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="Y30" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="C31" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="D31" t="n">
-        <v>95.93846427980824</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="E31" t="n">
-        <v>95.93846427980824</v>
+        <v>96.98019192258667</v>
       </c>
       <c r="F31" t="n">
-        <v>95.93846427980824</v>
+        <v>96.98019192258667</v>
       </c>
       <c r="G31" t="n">
-        <v>95.93846427980824</v>
+        <v>96.98019192258667</v>
       </c>
       <c r="H31" t="n">
-        <v>95.93846427980824</v>
+        <v>96.98019192258667</v>
       </c>
       <c r="I31" t="n">
-        <v>95.93846427980824</v>
+        <v>96.98019192258667</v>
       </c>
       <c r="J31" t="n">
-        <v>95.93846427980824</v>
+        <v>96.98019192258667</v>
       </c>
       <c r="K31" t="n">
-        <v>221.2664822235806</v>
+        <v>96.98019192258667</v>
       </c>
       <c r="L31" t="n">
-        <v>221.2664822235806</v>
+        <v>96.98019192258667</v>
       </c>
       <c r="M31" t="n">
-        <v>221.2664822235806</v>
+        <v>96.98019192258667</v>
       </c>
       <c r="N31" t="n">
-        <v>221.2664822235806</v>
+        <v>96.98019192258667</v>
       </c>
       <c r="O31" t="n">
-        <v>221.2664822235806</v>
+        <v>222.0569658183116</v>
       </c>
       <c r="P31" t="n">
-        <v>221.2664822235806</v>
+        <v>291.1130727383199</v>
       </c>
       <c r="Q31" t="n">
-        <v>221.2664822235806</v>
+        <v>291.1130727383199</v>
       </c>
       <c r="R31" t="n">
-        <v>291.1130727383205</v>
+        <v>291.1130727383199</v>
       </c>
       <c r="S31" t="n">
-        <v>291.1130727383205</v>
+        <v>291.1130727383199</v>
       </c>
       <c r="T31" t="n">
-        <v>270.0818963479587</v>
+        <v>270.0818963479583</v>
       </c>
       <c r="U31" t="n">
-        <v>194.1439049424266</v>
+        <v>194.1439049424262</v>
       </c>
       <c r="V31" t="n">
-        <v>144.6492684938648</v>
+        <v>144.6492684938645</v>
       </c>
       <c r="W31" t="n">
-        <v>69.73353500427946</v>
+        <v>69.73353500427928</v>
       </c>
       <c r="X31" t="n">
-        <v>49.72173889267079</v>
+        <v>49.72173889267069</v>
       </c>
       <c r="Y31" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
     </row>
     <row r="32">
@@ -6677,58 +6677,58 @@
         <v>1078.782752367161</v>
       </c>
       <c r="C32" t="n">
-        <v>908.0896616929848</v>
+        <v>908.0896616929841</v>
       </c>
       <c r="D32" t="n">
-        <v>746.5063649132239</v>
+        <v>746.5063649132233</v>
       </c>
       <c r="E32" t="n">
-        <v>562.9613130123463</v>
+        <v>562.9613130123457</v>
       </c>
       <c r="F32" t="n">
-        <v>360.0507903155321</v>
+        <v>360.0507903155317</v>
       </c>
       <c r="G32" t="n">
         <v>155.6607627868572</v>
       </c>
       <c r="H32" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I32" t="n">
         <v>94.4695360611644</v>
       </c>
       <c r="J32" t="n">
-        <v>195.2483166832098</v>
+        <v>412.8756604096687</v>
       </c>
       <c r="K32" t="n">
-        <v>676.9730116480074</v>
+        <v>501.8841908619966</v>
       </c>
       <c r="L32" t="n">
-        <v>780.7717826152627</v>
+        <v>882.9044899082739</v>
       </c>
       <c r="M32" t="n">
-        <v>1262.49647758006</v>
+        <v>882.9044899082739</v>
       </c>
       <c r="N32" t="n">
-        <v>1367.769258947853</v>
+        <v>988.1772712760664</v>
       </c>
       <c r="O32" t="n">
-        <v>1849.493953912651</v>
+        <v>988.1772712760664</v>
       </c>
       <c r="P32" t="n">
-        <v>1849.493953912651</v>
+        <v>1469.901966240864</v>
       </c>
       <c r="Q32" t="n">
-        <v>1849.493953912651</v>
+        <v>1821.464213597413</v>
       </c>
       <c r="R32" t="n">
-        <v>1912.258048618168</v>
+        <v>1912.258048618167</v>
       </c>
       <c r="S32" t="n">
         <v>1946.362403898172</v>
       </c>
       <c r="T32" t="n">
-        <v>1935.31595708029</v>
+        <v>1935.315957080289</v>
       </c>
       <c r="U32" t="n">
         <v>1891.709152069229</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="C33" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="D33" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="E33" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="F33" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="G33" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="H33" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I33" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="J33" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="K33" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="L33" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="M33" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="N33" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="O33" t="n">
-        <v>93.3948677516631</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="P33" t="n">
-        <v>93.3948677516631</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="Q33" t="n">
-        <v>93.3948677516631</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="R33" t="n">
-        <v>93.3948677516631</v>
+        <v>93.39486775166301</v>
       </c>
       <c r="S33" t="n">
-        <v>93.3948677516631</v>
+        <v>93.39486775166301</v>
       </c>
       <c r="T33" t="n">
-        <v>93.3948677516631</v>
+        <v>93.39486775166301</v>
       </c>
       <c r="U33" t="n">
-        <v>86.15740341028835</v>
+        <v>86.1574034102883</v>
       </c>
       <c r="V33" t="n">
-        <v>69.00244885163787</v>
+        <v>69.00244885163784</v>
       </c>
       <c r="W33" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="X33" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="Y33" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="C34" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="D34" t="n">
-        <v>95.93846427980822</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="E34" t="n">
-        <v>95.93846427980822</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="F34" t="n">
-        <v>95.93846427980822</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="G34" t="n">
-        <v>95.93846427980822</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="H34" t="n">
-        <v>148.6243093019446</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="I34" t="n">
-        <v>148.6243093019446</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="J34" t="n">
-        <v>154.9416599662986</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="K34" t="n">
-        <v>154.9416599662986</v>
+        <v>38.92724807796343</v>
       </c>
       <c r="L34" t="n">
-        <v>154.9416599662986</v>
+        <v>168.4017773575063</v>
       </c>
       <c r="M34" t="n">
-        <v>154.9416599662986</v>
+        <v>168.4017773575063</v>
       </c>
       <c r="N34" t="n">
-        <v>291.1130727383206</v>
+        <v>168.4017773575063</v>
       </c>
       <c r="O34" t="n">
-        <v>291.1130727383206</v>
+        <v>168.4017773575063</v>
       </c>
       <c r="P34" t="n">
-        <v>291.1130727383206</v>
+        <v>168.4017773575063</v>
       </c>
       <c r="Q34" t="n">
-        <v>291.1130727383206</v>
+        <v>291.1130727383205</v>
       </c>
       <c r="R34" t="n">
-        <v>291.1130727383206</v>
+        <v>291.1130727383205</v>
       </c>
       <c r="S34" t="n">
-        <v>291.1130727383206</v>
+        <v>291.1130727383205</v>
       </c>
       <c r="T34" t="n">
-        <v>270.0818963479588</v>
+        <v>270.0818963479587</v>
       </c>
       <c r="U34" t="n">
-        <v>194.1439049424267</v>
+        <v>194.1439049424266</v>
       </c>
       <c r="V34" t="n">
-        <v>144.6492684938649</v>
+        <v>144.6492684938648</v>
       </c>
       <c r="W34" t="n">
-        <v>69.73353500427952</v>
+        <v>69.73353500427945</v>
       </c>
       <c r="X34" t="n">
-        <v>49.72173889267082</v>
+        <v>49.72173889267078</v>
       </c>
       <c r="Y34" t="n">
-        <v>38.92724807796345</v>
+        <v>38.92724807796343</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>815.7962375133428</v>
+        <v>815.7962375133424</v>
       </c>
       <c r="C35" t="n">
-        <v>687.1792670385751</v>
+        <v>687.1792670385746</v>
       </c>
       <c r="D35" t="n">
-        <v>567.6720904582235</v>
+        <v>567.672090458223</v>
       </c>
       <c r="E35" t="n">
-        <v>426.2031587567552</v>
+        <v>426.2031587567548</v>
       </c>
       <c r="F35" t="n">
-        <v>265.3687562593504</v>
+        <v>265.36875625935</v>
       </c>
       <c r="G35" t="n">
         <v>103.0548489300847</v>
       </c>
       <c r="H35" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I35" t="n">
         <v>125.1785478112423</v>
@@ -6938,37 +6938,37 @@
         <v>267.1961338407288</v>
       </c>
       <c r="K35" t="n">
-        <v>397.4434697004978</v>
+        <v>397.4434697004976</v>
       </c>
       <c r="L35" t="n">
-        <v>529.2772084769682</v>
+        <v>529.2772084769681</v>
       </c>
       <c r="M35" t="n">
-        <v>673.7201990968712</v>
+        <v>673.7201990968713</v>
       </c>
       <c r="N35" t="n">
         <v>820.2317858721048</v>
       </c>
       <c r="O35" t="n">
-        <v>961.5796243680819</v>
+        <v>961.5796243680815</v>
       </c>
       <c r="P35" t="n">
         <v>1090.562817563684</v>
       </c>
       <c r="Q35" t="n">
-        <v>1210.114477348377</v>
+        <v>1210.114477348376</v>
       </c>
       <c r="R35" t="n">
-        <v>1314.117377461335</v>
+        <v>1314.117377461334</v>
       </c>
       <c r="S35" t="n">
-        <v>1389.460538148781</v>
+        <v>1389.46053814878</v>
       </c>
       <c r="T35" t="n">
-        <v>1419.872721030015</v>
+        <v>1419.872721030014</v>
       </c>
       <c r="U35" t="n">
-        <v>1418.342036218364</v>
+        <v>1418.342036218363</v>
       </c>
       <c r="V35" t="n">
         <v>1334.67955030673</v>
@@ -6980,7 +6980,7 @@
         <v>1096.748056070674</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.5229888389371</v>
+        <v>956.5229888389365</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="D36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="E36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="F36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="G36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="H36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="J36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="K36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="L36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="M36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="N36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="O36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="P36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="R36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="S36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="T36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="U36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="V36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="W36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y36" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="D37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="E37" t="n">
-        <v>102.5174551660517</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="F37" t="n">
-        <v>102.5174551660517</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="G37" t="n">
-        <v>102.5174551660517</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="H37" t="n">
-        <v>102.5174551660517</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I37" t="n">
-        <v>102.5174551660517</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="J37" t="n">
-        <v>102.5174551660517</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="K37" t="n">
-        <v>102.5174551660517</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="L37" t="n">
-        <v>102.5174551660517</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="M37" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="N37" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="O37" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="P37" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="R37" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="S37" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="T37" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="U37" t="n">
-        <v>68.65558395992888</v>
+        <v>68.6555839599288</v>
       </c>
       <c r="V37" t="n">
-        <v>61.23706771077634</v>
+        <v>61.23706771077629</v>
       </c>
       <c r="W37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>815.7962375133432</v>
+        <v>815.7962375133429</v>
       </c>
       <c r="C38" t="n">
-        <v>687.1792670385754</v>
+        <v>687.1792670385752</v>
       </c>
       <c r="D38" t="n">
-        <v>567.6720904582238</v>
+        <v>567.6720904582236</v>
       </c>
       <c r="E38" t="n">
-        <v>426.2031587567555</v>
+        <v>426.2031587567553</v>
       </c>
       <c r="F38" t="n">
-        <v>265.3687562593507</v>
+        <v>265.3687562593506</v>
       </c>
       <c r="G38" t="n">
         <v>103.0548489300847</v>
       </c>
       <c r="H38" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I38" t="n">
         <v>125.1785478112423</v>
       </c>
       <c r="J38" t="n">
-        <v>267.19613384073</v>
+        <v>267.1961338407288</v>
       </c>
       <c r="K38" t="n">
-        <v>397.4434697004989</v>
+        <v>397.4434697004976</v>
       </c>
       <c r="L38" t="n">
-        <v>529.2772084769693</v>
+        <v>529.2772084769681</v>
       </c>
       <c r="M38" t="n">
-        <v>673.7201990968723</v>
+        <v>673.7201990968709</v>
       </c>
       <c r="N38" t="n">
-        <v>820.2317858721059</v>
+        <v>820.2317858721044</v>
       </c>
       <c r="O38" t="n">
-        <v>961.5796243680826</v>
+        <v>961.5796243680811</v>
       </c>
       <c r="P38" t="n">
         <v>1090.562817563685</v>
@@ -7196,13 +7196,13 @@
         <v>1210.114477348377</v>
       </c>
       <c r="R38" t="n">
-        <v>1314.117377461336</v>
+        <v>1314.117377461335</v>
       </c>
       <c r="S38" t="n">
         <v>1389.460538148781</v>
       </c>
       <c r="T38" t="n">
-        <v>1419.872721030016</v>
+        <v>1419.872721030015</v>
       </c>
       <c r="U38" t="n">
         <v>1418.342036218364</v>
@@ -7217,7 +7217,7 @@
         <v>1096.748056070674</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.5229888389374</v>
+        <v>956.5229888389372</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="D39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="E39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="F39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="G39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="H39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="J39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="K39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="L39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="M39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="N39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="O39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="P39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="R39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="S39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="T39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="U39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="V39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="W39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="D40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="E40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="F40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="G40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="H40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="J40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="K40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="L40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="M40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="N40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="O40" t="n">
-        <v>102.5174551660517</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="P40" t="n">
-        <v>102.5174551660517</v>
+        <v>60.07239041602894</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.5174551660517</v>
+        <v>60.07239041602894</v>
       </c>
       <c r="R40" t="n">
-        <v>102.5174551660517</v>
+        <v>60.07239041602894</v>
       </c>
       <c r="S40" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="T40" t="n">
-        <v>102.5174551660517</v>
+        <v>102.5174551660516</v>
       </c>
       <c r="U40" t="n">
-        <v>68.65558395992888</v>
+        <v>68.6555839599288</v>
       </c>
       <c r="V40" t="n">
-        <v>61.23706771077634</v>
+        <v>61.23706771077629</v>
       </c>
       <c r="W40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
     <row r="41">
@@ -7385,67 +7385,67 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>815.7962375133428</v>
+        <v>815.7962375133429</v>
       </c>
       <c r="C41" t="n">
-        <v>687.1792670385751</v>
+        <v>687.1792670385752</v>
       </c>
       <c r="D41" t="n">
-        <v>567.6720904582235</v>
+        <v>567.6720904582237</v>
       </c>
       <c r="E41" t="n">
-        <v>426.2031587567552</v>
+        <v>426.2031587567554</v>
       </c>
       <c r="F41" t="n">
-        <v>265.3687562593504</v>
+        <v>265.3687562593507</v>
       </c>
       <c r="G41" t="n">
-        <v>103.0548489300847</v>
+        <v>103.0548489300846</v>
       </c>
       <c r="H41" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I41" t="n">
-        <v>125.1785478112423</v>
+        <v>125.1785478112422</v>
       </c>
       <c r="J41" t="n">
-        <v>267.1961338407289</v>
+        <v>267.1961338407287</v>
       </c>
       <c r="K41" t="n">
-        <v>397.4434697004978</v>
+        <v>397.4434697004976</v>
       </c>
       <c r="L41" t="n">
-        <v>529.2772084769686</v>
+        <v>529.277208476968</v>
       </c>
       <c r="M41" t="n">
-        <v>673.7201990968714</v>
+        <v>673.7201990968709</v>
       </c>
       <c r="N41" t="n">
-        <v>820.231785872105</v>
+        <v>820.2317858721046</v>
       </c>
       <c r="O41" t="n">
-        <v>961.5796243680818</v>
+        <v>961.5796243680813</v>
       </c>
       <c r="P41" t="n">
         <v>1090.562817563684</v>
       </c>
       <c r="Q41" t="n">
-        <v>1210.114477348377</v>
+        <v>1210.114477348376</v>
       </c>
       <c r="R41" t="n">
-        <v>1314.117377461335</v>
+        <v>1314.117377461334</v>
       </c>
       <c r="S41" t="n">
         <v>1389.46053814878</v>
       </c>
       <c r="T41" t="n">
-        <v>1419.872721030015</v>
+        <v>1419.872721030014</v>
       </c>
       <c r="U41" t="n">
-        <v>1418.342036218364</v>
+        <v>1418.342036218363</v>
       </c>
       <c r="V41" t="n">
-        <v>1334.67955030673</v>
+        <v>1334.679550306729</v>
       </c>
       <c r="W41" t="n">
         <v>1225.461408356756</v>
@@ -7454,7 +7454,7 @@
         <v>1096.748056070674</v>
       </c>
       <c r="Y41" t="n">
-        <v>956.5229888389371</v>
+        <v>956.5229888389372</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="D42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="E42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="F42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="G42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="H42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="J42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="K42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="L42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="M42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="N42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="O42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="P42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="R42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="S42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="T42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="U42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="V42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="W42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C43" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="D43" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="E43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="F43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="G43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="H43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="J43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="K43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="L43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="M43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="N43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="O43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="P43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="R43" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="S43" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="T43" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="U43" t="n">
-        <v>68.65558395992882</v>
+        <v>68.65558395992869</v>
       </c>
       <c r="V43" t="n">
-        <v>61.2370677107763</v>
+        <v>61.23706771077624</v>
       </c>
       <c r="W43" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X43" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>815.7962375133428</v>
+        <v>815.7962375133429</v>
       </c>
       <c r="C44" t="n">
-        <v>687.1792670385751</v>
+        <v>687.1792670385753</v>
       </c>
       <c r="D44" t="n">
-        <v>567.6720904582235</v>
+        <v>567.6720904582239</v>
       </c>
       <c r="E44" t="n">
-        <v>426.2031587567553</v>
+        <v>426.2031587567556</v>
       </c>
       <c r="F44" t="n">
-        <v>265.3687562593505</v>
+        <v>265.3687562593509</v>
       </c>
       <c r="G44" t="n">
-        <v>103.0548489300847</v>
+        <v>103.0548489300846</v>
       </c>
       <c r="H44" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I44" t="n">
         <v>125.1785478112424</v>
@@ -7649,34 +7649,34 @@
         <v>267.1961338407289</v>
       </c>
       <c r="K44" t="n">
-        <v>397.4434697004978</v>
+        <v>397.4434697004979</v>
       </c>
       <c r="L44" t="n">
         <v>529.2772084769683</v>
       </c>
       <c r="M44" t="n">
-        <v>673.7201990968714</v>
+        <v>673.7201990968713</v>
       </c>
       <c r="N44" t="n">
-        <v>820.231785872105</v>
+        <v>820.2317858721044</v>
       </c>
       <c r="O44" t="n">
-        <v>961.5796243680818</v>
+        <v>961.5796243680811</v>
       </c>
       <c r="P44" t="n">
         <v>1090.562817563684</v>
       </c>
       <c r="Q44" t="n">
-        <v>1210.114477348377</v>
+        <v>1210.114477348376</v>
       </c>
       <c r="R44" t="n">
-        <v>1314.117377461335</v>
+        <v>1314.117377461334</v>
       </c>
       <c r="S44" t="n">
-        <v>1389.460538148781</v>
+        <v>1389.46053814878</v>
       </c>
       <c r="T44" t="n">
-        <v>1419.872721030015</v>
+        <v>1419.872721030014</v>
       </c>
       <c r="U44" t="n">
         <v>1418.342036218364</v>
@@ -7691,7 +7691,7 @@
         <v>1096.748056070674</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.5229888389371</v>
+        <v>956.5229888389372</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="D45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="E45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="F45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="G45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="H45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="J45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="K45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="L45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="M45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="N45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="O45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="P45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="R45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="S45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="T45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="U45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="V45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="W45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="C46" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="D46" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="E46" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="F46" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="G46" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="H46" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="I46" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="J46" t="n">
-        <v>102.5174551660516</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="K46" t="n">
-        <v>102.5174551660516</v>
+        <v>39.44624098878118</v>
       </c>
       <c r="L46" t="n">
-        <v>102.5174551660516</v>
+        <v>39.44624098878118</v>
       </c>
       <c r="M46" t="n">
-        <v>102.5174551660516</v>
+        <v>39.44624098878118</v>
       </c>
       <c r="N46" t="n">
-        <v>102.5174551660516</v>
+        <v>39.44624098878118</v>
       </c>
       <c r="O46" t="n">
-        <v>102.5174551660516</v>
+        <v>39.44624098878118</v>
       </c>
       <c r="P46" t="n">
-        <v>102.5174551660516</v>
+        <v>39.44624098878118</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.5174551660516</v>
+        <v>39.44624098878118</v>
       </c>
       <c r="R46" t="n">
-        <v>102.5174551660516</v>
+        <v>39.44624098878118</v>
       </c>
       <c r="S46" t="n">
-        <v>102.5174551660516</v>
+        <v>81.89130573880388</v>
       </c>
       <c r="T46" t="n">
-        <v>102.5174551660516</v>
+        <v>102.5174551660514</v>
       </c>
       <c r="U46" t="n">
-        <v>68.65558395992882</v>
+        <v>68.65558395992869</v>
       </c>
       <c r="V46" t="n">
-        <v>61.2370677107763</v>
+        <v>61.23706771077624</v>
       </c>
       <c r="W46" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="X46" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.3974544206003</v>
+        <v>28.39745442060029</v>
       </c>
     </row>
   </sheetData>
@@ -9875,22 +9875,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>6.803659836859595</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>515.551488828372</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O26" t="n">
-        <v>495.0402356415689</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>397.9599062390264</v>
       </c>
       <c r="Q26" t="n">
         <v>276.0094878578761</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>26.12026678257938</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>81.73346793160957</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K28" t="n">
-        <v>80.40428934589775</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10042,13 +10042,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>71.58137972518438</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>396.68299445704</v>
       </c>
       <c r="L29" t="n">
-        <v>59.67519499792735</v>
+        <v>395.0805672684526</v>
       </c>
       <c r="M29" t="n">
-        <v>382.3439492447835</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>478.9532202072423</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>397.9599062390265</v>
+        <v>120.4975665775689</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>270.9919892730718</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>56.21137633839739</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10276,19 +10276,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>79.93067970396667</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>86.48380385827528</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.9458458910769</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
-        <v>396.6829944570402</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>13.33720969517769</v>
+        <v>293.3589552295435</v>
       </c>
       <c r="M32" t="n">
-        <v>382.3439492447836</v>
+        <v>104.881609583326</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>385.4703655315778</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>30.84515383758321</v>
+        <v>397.9599062390264</v>
       </c>
       <c r="Q32" t="n">
-        <v>130.0243680027304</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>71.51350511400938</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10507,16 +10507,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>80.40428934589775</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>78.34590850546633</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10592,13 +10592,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.222133505507372e-12</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1.051603248924948e-12</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.41643974301039</v>
+        <v>170.0388604600498</v>
       </c>
       <c r="C11" t="n">
-        <v>74.35190386140978</v>
+        <v>158.0501774177315</v>
       </c>
       <c r="D11" t="n">
-        <v>149.0314814622594</v>
+        <v>17.40906074522013</v>
       </c>
       <c r="E11" t="n">
         <v>170.773619032165</v>
       </c>
       <c r="F11" t="n">
-        <v>189.9454351201422</v>
+        <v>88.16997854700988</v>
       </c>
       <c r="G11" t="n">
-        <v>59.78772418664531</v>
+        <v>191.4101449036847</v>
       </c>
       <c r="H11" t="n">
         <v>104.630197212101</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>113.5452377002289</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.222916461146411</v>
+        <v>7.22291646114644</v>
       </c>
       <c r="X11" t="n">
         <v>158.1455954109324</v>
       </c>
       <c r="Y11" t="n">
-        <v>169.5421932071311</v>
+        <v>169.5421932071312</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.41643974301039</v>
+        <v>38.41643974301044</v>
       </c>
       <c r="C14" t="n">
-        <v>146.7473464622642</v>
+        <v>158.0501774177315</v>
       </c>
       <c r="D14" t="n">
-        <v>149.0314814622594</v>
+        <v>149.0314814622595</v>
       </c>
       <c r="E14" t="n">
-        <v>39.15119831512564</v>
+        <v>39.1511983151257</v>
       </c>
       <c r="F14" t="n">
         <v>189.9454351201422</v>
       </c>
       <c r="G14" t="n">
-        <v>191.4101449036847</v>
+        <v>59.78772418664536</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>104.630197212101</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.23475461124627</v>
+        <v>32.23475461124634</v>
       </c>
       <c r="V14" t="n">
         <v>113.5452377002289</v>
       </c>
       <c r="W14" t="n">
-        <v>138.8453371781858</v>
+        <v>22.91230901061768</v>
       </c>
       <c r="X14" t="n">
         <v>158.1455954109324</v>
       </c>
       <c r="Y14" t="n">
-        <v>37.91977249009179</v>
+        <v>169.5421932071312</v>
       </c>
     </row>
     <row r="15">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.050093593832571e-13</v>
       </c>
     </row>
     <row r="18">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>518697.2685428195</v>
+        <v>518697.2685428194</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>665785.5337645347</v>
+        <v>665785.5337645351</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>665785.5337645347</v>
+        <v>665785.533764535</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>594908.6468829908</v>
+        <v>594908.6468829907</v>
       </c>
     </row>
     <row r="15">
@@ -26314,13 +26314,13 @@
         <v>746729.7157196219</v>
       </c>
       <c r="C2" t="n">
-        <v>746729.7157196219</v>
+        <v>746729.7157196216</v>
       </c>
       <c r="D2" t="n">
         <v>746729.7157196219</v>
       </c>
       <c r="E2" t="n">
-        <v>652554.6281667735</v>
+        <v>652554.6281667732</v>
       </c>
       <c r="F2" t="n">
         <v>652554.628166773</v>
@@ -26329,16 +26329,16 @@
         <v>748433.4589818276</v>
       </c>
       <c r="H2" t="n">
-        <v>748433.4589818279</v>
+        <v>748433.4589818276</v>
       </c>
       <c r="I2" t="n">
         <v>748433.4589818278</v>
       </c>
       <c r="J2" t="n">
-        <v>748433.4589818276</v>
+        <v>748433.4589818274</v>
       </c>
       <c r="K2" t="n">
-        <v>748433.4589818275</v>
+        <v>748433.4589818273</v>
       </c>
       <c r="L2" t="n">
         <v>748433.4589818277</v>
@@ -26350,10 +26350,10 @@
         <v>748433.4589818273</v>
       </c>
       <c r="O2" t="n">
-        <v>748433.4589818276</v>
+        <v>748433.4589818275</v>
       </c>
       <c r="P2" t="n">
-        <v>748433.4589818277</v>
+        <v>748433.4589818275</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>308990.6514115119</v>
+        <v>308990.6514115118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>87882.22332590587</v>
+        <v>87882.22332590597</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>87882.22332590586</v>
+        <v>87882.2233259059</v>
       </c>
       <c r="M3" t="n">
-        <v>33324.28719793222</v>
+        <v>33324.28719793218</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>79420.38572456242</v>
+        <v>79420.38572456245</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,10 +26427,10 @@
         <v>341966.2726892944</v>
       </c>
       <c r="F4" t="n">
-        <v>341966.2726892944</v>
+        <v>341966.2726892943</v>
       </c>
       <c r="G4" t="n">
-        <v>398022.0726506227</v>
+        <v>398022.0726506228</v>
       </c>
       <c r="H4" t="n">
         <v>398022.0726506228</v>
@@ -26439,10 +26439,10 @@
         <v>398022.0726506228</v>
       </c>
       <c r="J4" t="n">
-        <v>405719.4410900335</v>
+        <v>405719.4410900336</v>
       </c>
       <c r="K4" t="n">
-        <v>405719.4410900336</v>
+        <v>405719.4410900337</v>
       </c>
       <c r="L4" t="n">
         <v>405719.4410900336</v>
@@ -26454,7 +26454,7 @@
         <v>398950.3342181895</v>
       </c>
       <c r="O4" t="n">
-        <v>398950.3342181894</v>
+        <v>398950.3342181895</v>
       </c>
       <c r="P4" t="n">
         <v>398950.3342181895</v>
@@ -26476,13 +26476,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29044.09759212584</v>
+        <v>29044.09759212583</v>
       </c>
       <c r="F5" t="n">
-        <v>29044.09759212584</v>
+        <v>29044.09759212583</v>
       </c>
       <c r="G5" t="n">
-        <v>38279.31088310781</v>
+        <v>38279.31088310782</v>
       </c>
       <c r="H5" t="n">
         <v>38279.31088310782</v>
@@ -26491,10 +26491,10 @@
         <v>38279.31088310782</v>
       </c>
       <c r="J5" t="n">
-        <v>49706.78585162482</v>
+        <v>49706.78585162481</v>
       </c>
       <c r="K5" t="n">
-        <v>49706.78585162482</v>
+        <v>49706.78585162481</v>
       </c>
       <c r="L5" t="n">
         <v>49706.78585162481</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>275964.9505081877</v>
+        <v>275960.5819357205</v>
       </c>
       <c r="C6" t="n">
-        <v>275964.9505081877</v>
+        <v>275960.5819357203</v>
       </c>
       <c r="D6" t="n">
-        <v>275964.9505081877</v>
+        <v>275960.5819357205</v>
       </c>
       <c r="E6" t="n">
-        <v>-27446.3935261586</v>
+        <v>-27692.23668209481</v>
       </c>
       <c r="F6" t="n">
-        <v>281544.2578853528</v>
+        <v>281298.4147294168</v>
       </c>
       <c r="G6" t="n">
-        <v>224249.8521221912</v>
+        <v>224249.852122191</v>
       </c>
       <c r="H6" t="n">
-        <v>312132.0754480973</v>
+        <v>312132.075448097</v>
       </c>
       <c r="I6" t="n">
-        <v>312132.0754480973</v>
+        <v>312132.0754480972</v>
       </c>
       <c r="J6" t="n">
-        <v>120711.5517603126</v>
+        <v>120711.5517603123</v>
       </c>
       <c r="K6" t="n">
-        <v>293007.2320401691</v>
+        <v>293007.2320401688</v>
       </c>
       <c r="L6" t="n">
-        <v>205125.0087142635</v>
+        <v>205125.0087142634</v>
       </c>
       <c r="M6" t="n">
-        <v>270952.7705181233</v>
+        <v>270952.7705181235</v>
       </c>
       <c r="N6" t="n">
         <v>304277.0577160552</v>
       </c>
       <c r="O6" t="n">
-        <v>224856.6719914932</v>
+        <v>224856.671991493</v>
       </c>
       <c r="P6" t="n">
-        <v>304277.0577160557</v>
+        <v>304277.0577160555</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>209.1282613130854</v>
       </c>
       <c r="K2" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="L2" t="n">
         <v>209.1282613130854</v>
@@ -26722,10 +26722,10 @@
         <v>250.7836203105006</v>
       </c>
       <c r="O2" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="P2" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="F3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="G3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="H3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="I3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="J3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="K3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="L3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="M3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="N3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="O3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="P3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
     </row>
     <row r="4">
@@ -26811,25 +26811,25 @@
         <v>131.6224207170393</v>
       </c>
       <c r="J4" t="n">
-        <v>486.5906009745431</v>
+        <v>486.590600974543</v>
       </c>
       <c r="K4" t="n">
-        <v>486.5906009745431</v>
+        <v>486.590600974543</v>
       </c>
       <c r="L4" t="n">
-        <v>486.5906009745431</v>
+        <v>486.590600974543</v>
       </c>
       <c r="M4" t="n">
-        <v>354.9681802575037</v>
+        <v>354.9681802575036</v>
       </c>
       <c r="N4" t="n">
-        <v>354.9681802575037</v>
+        <v>354.9681802575036</v>
       </c>
       <c r="O4" t="n">
-        <v>354.9681802575037</v>
+        <v>354.9681802575036</v>
       </c>
       <c r="P4" t="n">
-        <v>354.9681802575037</v>
+        <v>354.9681802575036</v>
       </c>
     </row>
   </sheetData>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>109.8527791573823</v>
+        <v>109.8527791573825</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>109.8527791573823</v>
+        <v>109.8527791573824</v>
       </c>
       <c r="M2" t="n">
-        <v>41.65535899741528</v>
+        <v>41.65535899741522</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>99.27548215570303</v>
+        <v>99.27548215570306</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116.5538308276523</v>
+        <v>116.5538308276522</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>354.9681802575037</v>
+        <v>354.9681802575036</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>109.8527791573823</v>
+        <v>109.8527791573825</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -28108,28 +28108,28 @@
         <v>220.0642436627892</v>
       </c>
       <c r="I11" t="n">
+        <v>153.0249401179329</v>
+      </c>
+      <c r="J11" t="n">
+        <v>129.2284097228461</v>
+      </c>
+      <c r="K11" t="n">
+        <v>119.2206547955825</v>
+      </c>
+      <c r="L11" t="n">
         <v>220.0642436627892</v>
       </c>
-      <c r="J11" t="n">
+      <c r="M11" t="n">
         <v>220.0642436627892</v>
       </c>
-      <c r="K11" t="n">
+      <c r="N11" t="n">
         <v>220.0642436627892</v>
-      </c>
-      <c r="L11" t="n">
-        <v>117.618227606995</v>
-      </c>
-      <c r="M11" t="n">
-        <v>104.8816095833259</v>
-      </c>
-      <c r="N11" t="n">
-        <v>178.97416744604</v>
       </c>
       <c r="O11" t="n">
         <v>108.0080258701201</v>
       </c>
       <c r="P11" t="n">
-        <v>120.4975665775688</v>
+        <v>120.4975665775689</v>
       </c>
       <c r="Q11" t="n">
         <v>220.0642436627892</v>
@@ -28175,7 +28175,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>170.9489032745658</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -28190,28 +28190,28 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J12" t="n">
-        <v>79.36985402649256</v>
+        <v>79.36985402649258</v>
       </c>
       <c r="K12" t="n">
-        <v>71.51350511400938</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L12" t="n">
-        <v>58.14149588130885</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M12" t="n">
-        <v>51.9620647605694</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N12" t="n">
-        <v>41.51206923517101</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O12" t="n">
-        <v>56.21137633839739</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P12" t="n">
-        <v>60.98136935834779</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160957</v>
       </c>
       <c r="R12" t="n">
         <v>102.7991627330203</v>
@@ -28220,7 +28220,7 @@
         <v>146.6148367064899</v>
       </c>
       <c r="T12" t="n">
-        <v>211.178926504556</v>
+        <v>185.7877530736877</v>
       </c>
       <c r="U12" t="n">
         <v>216.2933510110464</v>
@@ -28251,10 +28251,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
-        <v>151.5411742405149</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="E13" t="n">
-        <v>206.6565616393807</v>
+        <v>205.8513417527004</v>
       </c>
       <c r="F13" t="n">
         <v>150.9558484244806</v>
@@ -28263,31 +28263,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H13" t="n">
-        <v>155.9102360382001</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="I13" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J13" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K13" t="n">
-        <v>80.40428934589775</v>
+        <v>80.40428934589778</v>
       </c>
       <c r="L13" t="n">
-        <v>209.9683292225057</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M13" t="n">
-        <v>79.93067970396667</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N13" t="n">
-        <v>71.58137972518438</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O13" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P13" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q13" t="n">
         <v>105.4981853689493</v>
@@ -28314,7 +28314,7 @@
         <v>220.0642436627892</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.0642436627892</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="14">
@@ -28345,37 +28345,37 @@
         <v>220.0642436627892</v>
       </c>
       <c r="I14" t="n">
+        <v>153.0249401179329</v>
+      </c>
+      <c r="J14" t="n">
         <v>220.0642436627892</v>
-      </c>
-      <c r="J14" t="n">
-        <v>107.3315132100092</v>
       </c>
       <c r="K14" t="n">
         <v>220.0642436627892</v>
       </c>
       <c r="L14" t="n">
+        <v>143.5674549351028</v>
+      </c>
+      <c r="M14" t="n">
+        <v>104.881609583326</v>
+      </c>
+      <c r="N14" t="n">
         <v>220.0642436627892</v>
       </c>
-      <c r="M14" t="n">
-        <v>108.2433868592889</v>
-      </c>
-      <c r="N14" t="n">
-        <v>102.7921185173354</v>
-      </c>
       <c r="O14" t="n">
-        <v>220.0642436627892</v>
+        <v>108.0080258701201</v>
       </c>
       <c r="P14" t="n">
-        <v>120.4975665775688</v>
+        <v>120.4975665775689</v>
       </c>
       <c r="Q14" t="n">
         <v>220.0642436627892</v>
       </c>
       <c r="R14" t="n">
-        <v>145.7301858529672</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="S14" t="n">
-        <v>220.0642436627892</v>
+        <v>174.6794175959089</v>
       </c>
       <c r="T14" t="n">
         <v>220.0642436627892</v>
@@ -28427,28 +28427,28 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J15" t="n">
-        <v>79.36985402649256</v>
+        <v>79.36985402649258</v>
       </c>
       <c r="K15" t="n">
-        <v>71.51350511400938</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L15" t="n">
-        <v>83.53266931217712</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M15" t="n">
-        <v>51.9620647605694</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N15" t="n">
-        <v>41.51206923517101</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O15" t="n">
-        <v>56.21137633839739</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P15" t="n">
-        <v>60.98136935834779</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.73346793160954</v>
+        <v>107.124641362478</v>
       </c>
       <c r="R15" t="n">
         <v>102.7991627330203</v>
@@ -28500,34 +28500,34 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H16" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I16" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J16" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K16" t="n">
-        <v>136.8213633321276</v>
+        <v>80.40428934589778</v>
       </c>
       <c r="L16" t="n">
-        <v>78.34590850546633</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M16" t="n">
-        <v>79.93067970396667</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N16" t="n">
-        <v>71.58137972518438</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O16" t="n">
         <v>214.4105063778774</v>
       </c>
       <c r="P16" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.4981853689493</v>
+        <v>161.9152593551794</v>
       </c>
       <c r="R16" t="n">
         <v>138.576149682035</v>
@@ -28579,10 +28579,10 @@
         <v>329.9170228201716</v>
       </c>
       <c r="H17" t="n">
-        <v>329.9170228201716</v>
+        <v>324.6944408748902</v>
       </c>
       <c r="I17" t="n">
-        <v>284.6473608349722</v>
+        <v>153.0249401179329</v>
       </c>
       <c r="J17" t="n">
         <v>107.3315132100092</v>
@@ -28591,34 +28591,34 @@
         <v>119.2206547955825</v>
       </c>
       <c r="L17" t="n">
-        <v>117.618227606995</v>
+        <v>243.9225707193056</v>
       </c>
       <c r="M17" t="n">
-        <v>104.8816095833259</v>
+        <v>236.5040303003653</v>
       </c>
       <c r="N17" t="n">
-        <v>234.4145392343747</v>
+        <v>102.7921185173355</v>
       </c>
       <c r="O17" t="n">
-        <v>173.2414040506701</v>
+        <v>108.0080258701201</v>
       </c>
       <c r="P17" t="n">
-        <v>120.4975665775688</v>
+        <v>252.1199872946082</v>
       </c>
       <c r="Q17" t="n">
-        <v>130.0243680027304</v>
+        <v>261.6467887197698</v>
       </c>
       <c r="R17" t="n">
-        <v>145.7301858529672</v>
+        <v>145.7301858529673</v>
       </c>
       <c r="S17" t="n">
         <v>174.6794175959089</v>
       </c>
       <c r="T17" t="n">
-        <v>329.9170228201716</v>
+        <v>220.0642436627892</v>
       </c>
       <c r="U17" t="n">
-        <v>329.9170228201716</v>
+        <v>252.2989982740355</v>
       </c>
       <c r="V17" t="n">
         <v>329.9170228201716</v>
@@ -28664,28 +28664,28 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J18" t="n">
-        <v>79.36985402649256</v>
+        <v>79.36985402649258</v>
       </c>
       <c r="K18" t="n">
-        <v>71.51350511400938</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L18" t="n">
-        <v>58.14149588130885</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M18" t="n">
-        <v>51.9620647605694</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N18" t="n">
-        <v>41.51206923517101</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O18" t="n">
-        <v>56.21137633839739</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P18" t="n">
-        <v>60.98136935834779</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160957</v>
       </c>
       <c r="R18" t="n">
         <v>102.7991627330203</v>
@@ -28737,31 +28737,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H19" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I19" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J19" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K19" t="n">
-        <v>80.40428934589775</v>
+        <v>80.40428934589778</v>
       </c>
       <c r="L19" t="n">
-        <v>78.34590850546633</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M19" t="n">
-        <v>79.93067970396667</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N19" t="n">
-        <v>71.58137972518438</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O19" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P19" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q19" t="n">
         <v>105.4981853689493</v>
@@ -28822,34 +28822,34 @@
         <v>153.0249401179329</v>
       </c>
       <c r="J20" t="n">
-        <v>107.3315132100092</v>
+        <v>238.9539339270486</v>
       </c>
       <c r="K20" t="n">
         <v>119.2206547955825</v>
       </c>
       <c r="L20" t="n">
-        <v>243.9225707193055</v>
+        <v>117.6182276069951</v>
       </c>
       <c r="M20" t="n">
-        <v>104.8816095833259</v>
+        <v>104.881609583326</v>
       </c>
       <c r="N20" t="n">
-        <v>234.4145392343747</v>
+        <v>234.4145392343748</v>
       </c>
       <c r="O20" t="n">
-        <v>108.0080258701201</v>
+        <v>234.3123689824306</v>
       </c>
       <c r="P20" t="n">
-        <v>120.4975665775688</v>
+        <v>252.1199872946082</v>
       </c>
       <c r="Q20" t="n">
         <v>130.0243680027304</v>
       </c>
       <c r="R20" t="n">
-        <v>277.3526065700066</v>
+        <v>145.7301858529673</v>
       </c>
       <c r="S20" t="n">
-        <v>306.3018383129482</v>
+        <v>174.6794175959089</v>
       </c>
       <c r="T20" t="n">
         <v>220.0642436627892</v>
@@ -28901,28 +28901,28 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J21" t="n">
-        <v>79.36985402649256</v>
+        <v>79.36985402649258</v>
       </c>
       <c r="K21" t="n">
-        <v>71.51350511400938</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L21" t="n">
-        <v>58.14149588130885</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M21" t="n">
-        <v>51.9620647605694</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N21" t="n">
-        <v>41.51206923517101</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O21" t="n">
-        <v>56.21137633839739</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P21" t="n">
-        <v>60.98136935834779</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160957</v>
       </c>
       <c r="R21" t="n">
         <v>102.7991627330203</v>
@@ -28974,31 +28974,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H22" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I22" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J22" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K22" t="n">
-        <v>80.40428934589775</v>
+        <v>80.40428934589778</v>
       </c>
       <c r="L22" t="n">
-        <v>78.34590850546633</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M22" t="n">
-        <v>79.93067970396667</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N22" t="n">
-        <v>71.58137972518438</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O22" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P22" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q22" t="n">
         <v>105.4981853689493</v>
@@ -29053,37 +29053,37 @@
         <v>329.9170228201716</v>
       </c>
       <c r="H23" t="n">
-        <v>329.9170228201716</v>
+        <v>324.6944408748902</v>
       </c>
       <c r="I23" t="n">
         <v>153.0249401179329</v>
       </c>
       <c r="J23" t="n">
-        <v>107.3315132100092</v>
+        <v>156.0178317761836</v>
       </c>
       <c r="K23" t="n">
         <v>119.2206547955825</v>
       </c>
       <c r="L23" t="n">
-        <v>117.618227606995</v>
+        <v>249.2406483240345</v>
       </c>
       <c r="M23" t="n">
-        <v>148.3453462042188</v>
+        <v>104.881609583326</v>
       </c>
       <c r="N23" t="n">
-        <v>102.7921185173354</v>
+        <v>102.7921185173355</v>
       </c>
       <c r="O23" t="n">
-        <v>239.6304465871594</v>
+        <v>239.6304465871595</v>
       </c>
       <c r="P23" t="n">
-        <v>252.1199872946082</v>
+        <v>120.4975665775689</v>
       </c>
       <c r="Q23" t="n">
         <v>130.0243680027304</v>
       </c>
       <c r="R23" t="n">
-        <v>145.7301858529672</v>
+        <v>145.7301858529673</v>
       </c>
       <c r="S23" t="n">
         <v>306.3018383129482</v>
@@ -29138,28 +29138,28 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J24" t="n">
-        <v>79.36985402649256</v>
+        <v>79.36985402649258</v>
       </c>
       <c r="K24" t="n">
-        <v>71.51350511400938</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L24" t="n">
-        <v>58.14149588130885</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M24" t="n">
-        <v>51.9620647605694</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N24" t="n">
-        <v>41.51206923517101</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O24" t="n">
-        <v>56.21137633839739</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P24" t="n">
-        <v>60.98136935834779</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160957</v>
       </c>
       <c r="R24" t="n">
         <v>102.7991627330203</v>
@@ -29211,31 +29211,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H25" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I25" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J25" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K25" t="n">
-        <v>80.40428934589775</v>
+        <v>80.40428934589778</v>
       </c>
       <c r="L25" t="n">
-        <v>78.34590850546633</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M25" t="n">
-        <v>79.93067970396667</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N25" t="n">
-        <v>71.58137972518438</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O25" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P25" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q25" t="n">
         <v>105.4981853689493</v>
@@ -29293,25 +29293,25 @@
         <v>209.1282613130854</v>
       </c>
       <c r="I26" t="n">
-        <v>209.1282613130854</v>
+        <v>181.3697421882963</v>
       </c>
       <c r="J26" t="n">
-        <v>209.1282613130854</v>
+        <v>107.3315132100092</v>
       </c>
       <c r="K26" t="n">
         <v>209.1282613130854</v>
       </c>
       <c r="L26" t="n">
-        <v>117.618227606995</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="M26" t="n">
-        <v>75.9207217294969</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="N26" t="n">
+        <v>20.83171775629906</v>
+      </c>
+      <c r="O26" t="n">
         <v>209.1282613130854</v>
-      </c>
-      <c r="O26" t="n">
-        <v>99.55839120309422</v>
       </c>
       <c r="P26" t="n">
         <v>209.1282613130854</v>
@@ -29323,7 +29323,7 @@
         <v>209.1282613130854</v>
       </c>
       <c r="S26" t="n">
-        <v>174.6794175959089</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="T26" t="n">
         <v>209.1282613130854</v>
@@ -29375,28 +29375,28 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J27" t="n">
-        <v>79.36985402649256</v>
+        <v>79.36985402649258</v>
       </c>
       <c r="K27" t="n">
-        <v>71.51350511400938</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L27" t="n">
-        <v>58.14149588130885</v>
+        <v>32.02122909872953</v>
       </c>
       <c r="M27" t="n">
-        <v>51.9620647605694</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N27" t="n">
-        <v>96.5298668853726</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O27" t="n">
-        <v>56.21137633839739</v>
+        <v>111.2291739885989</v>
       </c>
       <c r="P27" t="n">
-        <v>60.98136935834779</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.73346793160954</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>102.7991627330203</v>
@@ -29448,37 +29448,37 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H28" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I28" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J28" t="n">
-        <v>88.32412184825274</v>
+        <v>44.59700812871243</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="L28" t="n">
-        <v>78.34590850546633</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M28" t="n">
-        <v>108.3893025276033</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O28" t="n">
-        <v>82.78808566083804</v>
+        <v>138.2451582851826</v>
       </c>
       <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>105.4981853689493</v>
+      </c>
+      <c r="R28" t="n">
         <v>209.1282613130854</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>209.1282613130854</v>
-      </c>
-      <c r="R28" t="n">
-        <v>138.576149682035</v>
       </c>
       <c r="S28" t="n">
         <v>207.9098175327</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="C29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="D29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="E29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="F29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="G29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="H29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="I29" t="n">
-        <v>209.1282613130854</v>
+        <v>153.0249401179329</v>
       </c>
       <c r="J29" t="n">
-        <v>107.3315132100092</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="K29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="L29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="M29" t="n">
-        <v>209.1282613130854</v>
+        <v>104.881609583326</v>
       </c>
       <c r="N29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="O29" t="n">
-        <v>115.6454066374208</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="P29" t="n">
-        <v>209.1282613130854</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>130.0243680027304</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="R29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="S29" t="n">
-        <v>174.6794175959089</v>
+        <v>185.6277091339606</v>
       </c>
       <c r="T29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y29" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="30">
@@ -29606,34 +29606,34 @@
         <v>127.1905142842246</v>
       </c>
       <c r="H30" t="n">
-        <v>96.51723797799072</v>
+        <v>151.535035628192</v>
       </c>
       <c r="I30" t="n">
         <v>72.23035288210312</v>
       </c>
       <c r="J30" t="n">
-        <v>79.36985402649256</v>
+        <v>79.36985402649258</v>
       </c>
       <c r="K30" t="n">
-        <v>126.5313027642109</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L30" t="n">
-        <v>58.14149588130885</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M30" t="n">
-        <v>51.9620647605694</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N30" t="n">
-        <v>41.51206923517101</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P30" t="n">
-        <v>60.98136935834779</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160957</v>
       </c>
       <c r="R30" t="n">
         <v>102.7991627330203</v>
@@ -29645,13 +29645,13 @@
         <v>185.7877530736877</v>
       </c>
       <c r="U30" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V30" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W30" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X30" t="n">
         <v>195.9378182409833</v>
@@ -29673,10 +29673,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>209.1282613130854</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
@@ -29685,58 +29685,58 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H31" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I31" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J31" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9982468648597</v>
+        <v>80.40428934589778</v>
       </c>
       <c r="L31" t="n">
-        <v>78.34590850546633</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N31" t="n">
-        <v>71.58137972518438</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>82.78808566083804</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>156.2374472118191</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.55233947787236</v>
+        <v>105.4981853689493</v>
       </c>
       <c r="R31" t="n">
-        <v>209.1282613130854</v>
+        <v>138.576149682035</v>
       </c>
       <c r="S31" t="n">
         <v>207.9098175327</v>
       </c>
       <c r="T31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="U31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="V31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="W31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="X31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
       <c r="Y31" t="n">
-        <v>209.1282613130854</v>
+        <v>209.1282613130855</v>
       </c>
     </row>
     <row r="32">
@@ -29779,22 +29779,22 @@
         <v>209.1282613130854</v>
       </c>
       <c r="M32" t="n">
-        <v>209.1282613130854</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>209.1282613130854</v>
       </c>
       <c r="O32" t="n">
+        <v>108.0080258701201</v>
+      </c>
+      <c r="P32" t="n">
         <v>209.1282613130854</v>
       </c>
-      <c r="P32" t="n">
-        <v>89.65241273998561</v>
-      </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="R32" t="n">
-        <v>209.1282613130854</v>
+        <v>152.0097844834985</v>
       </c>
       <c r="S32" t="n">
         <v>209.1282613130854</v>
@@ -29849,31 +29849,31 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J33" t="n">
-        <v>79.36985402649256</v>
+        <v>79.36985402649258</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L33" t="n">
-        <v>58.14149588130885</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M33" t="n">
-        <v>51.9620647605694</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N33" t="n">
-        <v>41.51206923517101</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O33" t="n">
-        <v>111.2291739885991</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P33" t="n">
-        <v>60.98136935834779</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160957</v>
       </c>
       <c r="R33" t="n">
-        <v>102.7991627330203</v>
+        <v>157.8169603832219</v>
       </c>
       <c r="S33" t="n">
         <v>146.6148367064899</v>
@@ -29910,7 +29910,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>209.1282613130854</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
@@ -29922,34 +29922,34 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H34" t="n">
-        <v>209.1282613130854</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I34" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J34" t="n">
-        <v>94.70528413547906</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>80.40428934589778</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>209.1282613130854</v>
       </c>
       <c r="M34" t="n">
-        <v>79.93067970396667</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N34" t="n">
-        <v>209.1282613130854</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P34" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.4981853689493</v>
+        <v>144.5031428928362</v>
       </c>
       <c r="R34" t="n">
         <v>138.576149682035</v>
@@ -30086,28 +30086,28 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J36" t="n">
-        <v>79.36985402649256</v>
+        <v>79.36985402649258</v>
       </c>
       <c r="K36" t="n">
-        <v>71.51350511400938</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L36" t="n">
-        <v>58.14149588130885</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M36" t="n">
-        <v>51.9620647605694</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N36" t="n">
-        <v>41.51206923517101</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O36" t="n">
-        <v>56.21137633839739</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P36" t="n">
-        <v>60.98136935834779</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160957</v>
       </c>
       <c r="R36" t="n">
         <v>102.7991627330203</v>
@@ -30150,7 +30150,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>225.3576117179624</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -30159,31 +30159,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H37" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I37" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J37" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K37" t="n">
-        <v>80.40428934589775</v>
+        <v>80.40428934589778</v>
       </c>
       <c r="L37" t="n">
-        <v>78.34590850546633</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M37" t="n">
-        <v>79.93067970396667</v>
+        <v>154.7993673256346</v>
       </c>
       <c r="N37" t="n">
-        <v>71.58137972518438</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O37" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P37" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q37" t="n">
         <v>105.4981853689493</v>
@@ -30323,28 +30323,28 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J39" t="n">
-        <v>79.36985402649256</v>
+        <v>79.36985402649258</v>
       </c>
       <c r="K39" t="n">
-        <v>71.51350511400938</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L39" t="n">
-        <v>58.14149588130885</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M39" t="n">
-        <v>51.9620647605694</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N39" t="n">
-        <v>41.51206923517101</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O39" t="n">
-        <v>56.21137633839739</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P39" t="n">
-        <v>60.98136935834779</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160957</v>
       </c>
       <c r="R39" t="n">
         <v>102.7991627330203</v>
@@ -30396,31 +30396,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H40" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I40" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J40" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K40" t="n">
-        <v>80.40428934589775</v>
+        <v>80.40428934589778</v>
       </c>
       <c r="L40" t="n">
-        <v>78.34590850546633</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M40" t="n">
-        <v>79.93067970396667</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N40" t="n">
-        <v>71.58137972518438</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O40" t="n">
-        <v>157.6567732825061</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P40" t="n">
-        <v>86.48380385827528</v>
+        <v>118.4786887021426</v>
       </c>
       <c r="Q40" t="n">
         <v>105.4981853689493</v>
@@ -30429,7 +30429,7 @@
         <v>138.576149682035</v>
       </c>
       <c r="S40" t="n">
-        <v>207.9098175327</v>
+        <v>250.7836203105006</v>
       </c>
       <c r="T40" t="n">
         <v>229.9491259395436</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="C41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="D41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="E41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="F41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="G41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="H41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="I41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="J41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="K41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="L41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="M41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="N41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="O41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="P41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="R41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="S41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="U41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Y41" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
     </row>
     <row r="42">
@@ -30560,28 +30560,28 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J42" t="n">
-        <v>79.36985402649256</v>
+        <v>79.36985402649258</v>
       </c>
       <c r="K42" t="n">
-        <v>71.51350511400938</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L42" t="n">
-        <v>58.14149588130885</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M42" t="n">
-        <v>51.9620647605694</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N42" t="n">
-        <v>41.51206923517101</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O42" t="n">
-        <v>56.21137633839739</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P42" t="n">
-        <v>60.98136935834779</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160957</v>
       </c>
       <c r="R42" t="n">
         <v>102.7991627330203</v>
@@ -30624,7 +30624,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>225.3576117179623</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -30633,37 +30633,37 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H43" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I43" t="n">
         <v>136.4403570291208</v>
       </c>
       <c r="J43" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K43" t="n">
-        <v>80.40428934589775</v>
+        <v>80.40428934589778</v>
       </c>
       <c r="L43" t="n">
-        <v>78.34590850546633</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M43" t="n">
-        <v>79.93067970396667</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N43" t="n">
-        <v>71.58137972518438</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O43" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P43" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q43" t="n">
         <v>105.4981853689493</v>
       </c>
       <c r="R43" t="n">
-        <v>138.576149682035</v>
+        <v>213.4448373037027</v>
       </c>
       <c r="S43" t="n">
         <v>207.9098175327</v>
@@ -30672,13 +30672,13 @@
         <v>229.9491259395436</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V43" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W43" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="C44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="D44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="E44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="F44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="G44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="H44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="I44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="J44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="K44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="L44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="M44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="N44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105002</v>
       </c>
       <c r="O44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="P44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="R44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="S44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="U44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="Y44" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
     </row>
     <row r="45">
@@ -30797,28 +30797,28 @@
         <v>72.23035288210312</v>
       </c>
       <c r="J45" t="n">
-        <v>79.36985402649256</v>
+        <v>79.36985402649258</v>
       </c>
       <c r="K45" t="n">
-        <v>71.51350511400938</v>
+        <v>71.5135051140094</v>
       </c>
       <c r="L45" t="n">
-        <v>58.14149588130885</v>
+        <v>58.1414958813089</v>
       </c>
       <c r="M45" t="n">
-        <v>51.9620647605694</v>
+        <v>51.96206476056947</v>
       </c>
       <c r="N45" t="n">
-        <v>41.51206923517101</v>
+        <v>41.51206923517108</v>
       </c>
       <c r="O45" t="n">
-        <v>56.21137633839739</v>
+        <v>56.21137633839745</v>
       </c>
       <c r="P45" t="n">
-        <v>60.98136935834779</v>
+        <v>60.98136935834784</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.73346793160954</v>
+        <v>81.73346793160957</v>
       </c>
       <c r="R45" t="n">
         <v>102.7991627330203</v>
@@ -30870,31 +30870,31 @@
         <v>167.0203721066311</v>
       </c>
       <c r="H46" t="n">
-        <v>155.9102360382001</v>
+        <v>155.9102360382002</v>
       </c>
       <c r="I46" t="n">
-        <v>211.3090446507888</v>
+        <v>136.4403570291208</v>
       </c>
       <c r="J46" t="n">
-        <v>88.32412184825274</v>
+        <v>88.32412184825276</v>
       </c>
       <c r="K46" t="n">
-        <v>80.40428934589775</v>
+        <v>91.56467981880778</v>
       </c>
       <c r="L46" t="n">
-        <v>78.34590850546633</v>
+        <v>78.34590850546637</v>
       </c>
       <c r="M46" t="n">
-        <v>79.93067970396667</v>
+        <v>79.9306797039667</v>
       </c>
       <c r="N46" t="n">
-        <v>71.58137972518438</v>
+        <v>71.58137972518442</v>
       </c>
       <c r="O46" t="n">
-        <v>82.78808566083804</v>
+        <v>82.78808566083806</v>
       </c>
       <c r="P46" t="n">
-        <v>86.48380385827528</v>
+        <v>86.48380385827531</v>
       </c>
       <c r="Q46" t="n">
         <v>105.4981853689493</v>
@@ -30903,19 +30903,19 @@
         <v>138.576149682035</v>
       </c>
       <c r="S46" t="n">
-        <v>207.9098175327</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="T46" t="n">
-        <v>229.9491259395436</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="U46" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="V46" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="W46" t="n">
-        <v>250.7836203105006</v>
+        <v>250.7836203105007</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H11" t="n">
-        <v>4.798620783773642</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I11" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J11" t="n">
-        <v>39.76828421792344</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K11" t="n">
-        <v>59.60234917846422</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L11" t="n">
-        <v>73.94198455611956</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M11" t="n">
-        <v>82.27470491383316</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N11" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O11" t="n">
-        <v>78.94677091000041</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P11" t="n">
-        <v>67.37924247358768</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.59900502025984</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R11" t="n">
-        <v>29.43306362101513</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S11" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T11" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2507006927236295</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H12" t="n">
-        <v>2.421240900778211</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I12" t="n">
-        <v>8.631580867896893</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J12" t="n">
-        <v>23.68571764017414</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K12" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L12" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M12" t="n">
-        <v>63.52183780107049</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N12" t="n">
-        <v>65.2030718325373</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O12" t="n">
-        <v>59.64807227271371</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P12" t="n">
-        <v>47.87283666579553</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R12" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S12" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01049972198691</v>
+        <v>1.010499721986909</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01649346662655458</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H13" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318753</v>
       </c>
       <c r="I13" t="n">
-        <v>6.32065692422744</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J13" t="n">
-        <v>14.85965807125659</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K13" t="n">
-        <v>24.41898291766223</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L13" t="n">
-        <v>31.24789097303977</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M13" t="n">
-        <v>32.94651975346243</v>
+        <v>32.9465197534624</v>
       </c>
       <c r="N13" t="n">
-        <v>32.16312515281758</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O13" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P13" t="n">
-        <v>25.42019943165714</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497548</v>
       </c>
       <c r="R13" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S13" t="n">
-        <v>3.662847437649333</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8980377129343697</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H14" t="n">
-        <v>4.798620783773642</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I14" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J14" t="n">
-        <v>39.76828421792344</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K14" t="n">
-        <v>59.60234917846422</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L14" t="n">
-        <v>73.94198455611956</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M14" t="n">
-        <v>82.27470491383316</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N14" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O14" t="n">
-        <v>78.94677091000041</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P14" t="n">
-        <v>67.37924247358768</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q14" t="n">
-        <v>50.59900502025984</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R14" t="n">
-        <v>29.43306362101513</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S14" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T14" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2507006927236295</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H15" t="n">
-        <v>2.421240900778211</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I15" t="n">
-        <v>8.631580867896893</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J15" t="n">
-        <v>23.68571764017414</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K15" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L15" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M15" t="n">
-        <v>63.52183780107049</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N15" t="n">
-        <v>65.2030718325373</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O15" t="n">
-        <v>59.64807227271371</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P15" t="n">
-        <v>47.87283666579553</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R15" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S15" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01049972198691</v>
+        <v>1.010499721986909</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01649346662655458</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H16" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318753</v>
       </c>
       <c r="I16" t="n">
-        <v>6.32065692422744</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J16" t="n">
-        <v>14.85965807125659</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K16" t="n">
-        <v>24.41898291766223</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L16" t="n">
-        <v>31.24789097303977</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M16" t="n">
-        <v>32.94651975346243</v>
+        <v>32.9465197534624</v>
       </c>
       <c r="N16" t="n">
-        <v>32.16312515281758</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O16" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P16" t="n">
-        <v>25.42019943165714</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497548</v>
       </c>
       <c r="R16" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S16" t="n">
-        <v>3.662847437649333</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8980377129343697</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H17" t="n">
-        <v>4.798620783773642</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I17" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J17" t="n">
-        <v>39.76828421792344</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K17" t="n">
-        <v>59.60234917846422</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L17" t="n">
-        <v>73.94198455611956</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M17" t="n">
-        <v>82.27470491383316</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N17" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O17" t="n">
-        <v>78.94677091000041</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P17" t="n">
-        <v>67.37924247358768</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.59900502025984</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R17" t="n">
-        <v>29.43306362101513</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S17" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T17" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2507006927236295</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H18" t="n">
-        <v>2.421240900778211</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I18" t="n">
-        <v>8.631580867896893</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J18" t="n">
-        <v>23.68571764017414</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K18" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L18" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M18" t="n">
-        <v>63.52183780107049</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N18" t="n">
-        <v>65.2030718325373</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O18" t="n">
-        <v>59.64807227271371</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P18" t="n">
-        <v>47.87283666579553</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R18" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S18" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01049972198691</v>
+        <v>1.010499721986909</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01649346662655458</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H19" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318753</v>
       </c>
       <c r="I19" t="n">
-        <v>6.32065692422744</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J19" t="n">
-        <v>14.85965807125659</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K19" t="n">
-        <v>24.41898291766223</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L19" t="n">
-        <v>31.24789097303977</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M19" t="n">
-        <v>32.94651975346243</v>
+        <v>32.9465197534624</v>
       </c>
       <c r="N19" t="n">
-        <v>32.16312515281758</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O19" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P19" t="n">
-        <v>25.42019943165714</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497548</v>
       </c>
       <c r="R19" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S19" t="n">
-        <v>3.662847437649333</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8980377129343697</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H20" t="n">
-        <v>4.798620783773642</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I20" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J20" t="n">
-        <v>39.76828421792344</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K20" t="n">
-        <v>59.60234917846422</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L20" t="n">
-        <v>73.94198455611956</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M20" t="n">
-        <v>82.27470491383316</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N20" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O20" t="n">
-        <v>78.94677091000041</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P20" t="n">
-        <v>67.37924247358768</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q20" t="n">
-        <v>50.59900502025984</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R20" t="n">
-        <v>29.43306362101513</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S20" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T20" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2507006927236295</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H21" t="n">
-        <v>2.421240900778211</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I21" t="n">
-        <v>8.631580867896893</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J21" t="n">
-        <v>23.68571764017414</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K21" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L21" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M21" t="n">
-        <v>63.52183780107049</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N21" t="n">
-        <v>65.2030718325373</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O21" t="n">
-        <v>59.64807227271371</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P21" t="n">
-        <v>47.87283666579553</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R21" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S21" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01049972198691</v>
+        <v>1.010499721986909</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01649346662655458</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H22" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318753</v>
       </c>
       <c r="I22" t="n">
-        <v>6.32065692422744</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J22" t="n">
-        <v>14.85965807125659</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K22" t="n">
-        <v>24.41898291766223</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L22" t="n">
-        <v>31.24789097303977</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M22" t="n">
-        <v>32.94651975346243</v>
+        <v>32.9465197534624</v>
       </c>
       <c r="N22" t="n">
-        <v>32.16312515281758</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O22" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P22" t="n">
-        <v>25.42019943165714</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497548</v>
       </c>
       <c r="R22" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S22" t="n">
-        <v>3.662847437649333</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8980377129343697</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H23" t="n">
-        <v>4.798620783773642</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I23" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J23" t="n">
-        <v>39.76828421792344</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K23" t="n">
-        <v>59.60234917846422</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L23" t="n">
-        <v>73.94198455611956</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M23" t="n">
-        <v>82.27470491383316</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N23" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O23" t="n">
-        <v>78.94677091000041</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P23" t="n">
-        <v>67.37924247358768</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q23" t="n">
-        <v>50.59900502025984</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R23" t="n">
-        <v>29.43306362101513</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S23" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T23" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2507006927236295</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H24" t="n">
-        <v>2.421240900778211</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I24" t="n">
-        <v>8.631580867896893</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J24" t="n">
-        <v>23.68571764017414</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K24" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L24" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M24" t="n">
-        <v>63.52183780107049</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N24" t="n">
-        <v>65.2030718325373</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O24" t="n">
-        <v>59.64807227271371</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P24" t="n">
-        <v>47.87283666579553</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R24" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S24" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01049972198691</v>
+        <v>1.010499721986909</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01649346662655458</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H25" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318753</v>
       </c>
       <c r="I25" t="n">
-        <v>6.32065692422744</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J25" t="n">
-        <v>14.85965807125659</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K25" t="n">
-        <v>24.41898291766223</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L25" t="n">
-        <v>31.24789097303977</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M25" t="n">
-        <v>32.94651975346243</v>
+        <v>32.9465197534624</v>
       </c>
       <c r="N25" t="n">
-        <v>32.16312515281758</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O25" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P25" t="n">
-        <v>25.42019943165714</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497548</v>
       </c>
       <c r="R25" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S25" t="n">
-        <v>3.662847437649333</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8980377129343697</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H26" t="n">
-        <v>4.798620783773642</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I26" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J26" t="n">
-        <v>39.76828421792344</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K26" t="n">
-        <v>59.60234917846422</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L26" t="n">
-        <v>73.94198455611956</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M26" t="n">
-        <v>82.27470491383316</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N26" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O26" t="n">
-        <v>78.94677091000041</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P26" t="n">
-        <v>67.37924247358768</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q26" t="n">
-        <v>50.59900502025984</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R26" t="n">
-        <v>29.43306362101513</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S26" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T26" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2507006927236295</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H27" t="n">
-        <v>2.421240900778211</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I27" t="n">
-        <v>8.631580867896893</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J27" t="n">
-        <v>23.68571764017414</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K27" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L27" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M27" t="n">
-        <v>63.52183780107049</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N27" t="n">
-        <v>65.2030718325373</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O27" t="n">
-        <v>59.64807227271371</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P27" t="n">
-        <v>47.87283666579553</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R27" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S27" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01049972198691</v>
+        <v>1.010499721986909</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01649346662655458</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H28" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318753</v>
       </c>
       <c r="I28" t="n">
-        <v>6.32065692422744</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J28" t="n">
-        <v>14.85965807125659</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K28" t="n">
-        <v>24.41898291766223</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L28" t="n">
-        <v>31.24789097303977</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M28" t="n">
-        <v>32.94651975346243</v>
+        <v>32.9465197534624</v>
       </c>
       <c r="N28" t="n">
-        <v>32.16312515281758</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O28" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P28" t="n">
-        <v>25.42019943165714</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497548</v>
       </c>
       <c r="R28" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S28" t="n">
-        <v>3.662847437649333</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8980377129343697</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H29" t="n">
-        <v>4.798620783773642</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I29" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J29" t="n">
-        <v>39.76828421792344</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K29" t="n">
-        <v>59.60234917846422</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L29" t="n">
-        <v>73.94198455611956</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M29" t="n">
-        <v>82.27470491383316</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N29" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O29" t="n">
-        <v>78.94677091000041</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P29" t="n">
-        <v>67.37924247358768</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q29" t="n">
-        <v>50.59900502025984</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R29" t="n">
-        <v>29.43306362101513</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S29" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T29" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2507006927236295</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H30" t="n">
-        <v>2.421240900778211</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I30" t="n">
-        <v>8.631580867896893</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J30" t="n">
-        <v>23.68571764017414</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K30" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L30" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M30" t="n">
-        <v>63.52183780107049</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N30" t="n">
-        <v>65.2030718325373</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O30" t="n">
-        <v>59.64807227271371</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P30" t="n">
-        <v>47.87283666579553</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R30" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S30" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01049972198691</v>
+        <v>1.010499721986909</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01649346662655458</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H31" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318753</v>
       </c>
       <c r="I31" t="n">
-        <v>6.32065692422744</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J31" t="n">
-        <v>14.85965807125659</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K31" t="n">
-        <v>24.41898291766223</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L31" t="n">
-        <v>31.24789097303977</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M31" t="n">
-        <v>32.94651975346243</v>
+        <v>32.9465197534624</v>
       </c>
       <c r="N31" t="n">
-        <v>32.16312515281758</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O31" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P31" t="n">
-        <v>25.42019943165714</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497548</v>
       </c>
       <c r="R31" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S31" t="n">
-        <v>3.662847437649333</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8980377129343697</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H32" t="n">
-        <v>4.798620783773642</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I32" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J32" t="n">
-        <v>39.76828421792344</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K32" t="n">
-        <v>59.60234917846422</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L32" t="n">
-        <v>73.94198455611956</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M32" t="n">
-        <v>82.27470491383316</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N32" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O32" t="n">
-        <v>78.94677091000041</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P32" t="n">
-        <v>67.37924247358768</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.59900502025984</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R32" t="n">
-        <v>29.43306362101513</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S32" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T32" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2507006927236295</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H33" t="n">
-        <v>2.421240900778211</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I33" t="n">
-        <v>8.631580867896893</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J33" t="n">
-        <v>23.68571764017414</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K33" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L33" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M33" t="n">
-        <v>63.52183780107049</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N33" t="n">
-        <v>65.2030718325373</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O33" t="n">
-        <v>59.64807227271371</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P33" t="n">
-        <v>47.87283666579553</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R33" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S33" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01049972198691</v>
+        <v>1.010499721986909</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01649346662655458</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H34" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318753</v>
       </c>
       <c r="I34" t="n">
-        <v>6.32065692422744</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J34" t="n">
-        <v>14.85965807125659</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K34" t="n">
-        <v>24.41898291766223</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L34" t="n">
-        <v>31.24789097303977</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M34" t="n">
-        <v>32.94651975346243</v>
+        <v>32.9465197534624</v>
       </c>
       <c r="N34" t="n">
-        <v>32.16312515281758</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O34" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P34" t="n">
-        <v>25.42019943165714</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497548</v>
       </c>
       <c r="R34" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S34" t="n">
-        <v>3.662847437649333</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8980377129343697</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H35" t="n">
-        <v>4.798620783773642</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I35" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J35" t="n">
-        <v>39.76828421792344</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K35" t="n">
-        <v>59.60234917846422</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L35" t="n">
-        <v>73.94198455611956</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M35" t="n">
-        <v>82.27470491383316</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N35" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O35" t="n">
-        <v>78.94677091000041</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P35" t="n">
-        <v>67.37924247358768</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q35" t="n">
-        <v>50.59900502025984</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R35" t="n">
-        <v>29.43306362101513</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S35" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T35" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2507006927236295</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H36" t="n">
-        <v>2.421240900778211</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I36" t="n">
-        <v>8.631580867896893</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J36" t="n">
-        <v>23.68571764017414</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K36" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L36" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M36" t="n">
-        <v>63.52183780107049</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N36" t="n">
-        <v>65.2030718325373</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O36" t="n">
-        <v>59.64807227271371</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P36" t="n">
-        <v>47.87283666579553</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R36" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S36" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T36" t="n">
-        <v>1.01049972198691</v>
+        <v>1.010499721986909</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01649346662655458</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H37" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318753</v>
       </c>
       <c r="I37" t="n">
-        <v>6.32065692422744</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J37" t="n">
-        <v>14.85965807125659</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K37" t="n">
-        <v>24.41898291766223</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L37" t="n">
-        <v>31.24789097303977</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M37" t="n">
-        <v>32.94651975346243</v>
+        <v>32.9465197534624</v>
       </c>
       <c r="N37" t="n">
-        <v>32.16312515281758</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O37" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P37" t="n">
-        <v>25.42019943165714</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497548</v>
       </c>
       <c r="R37" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S37" t="n">
-        <v>3.662847437649333</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8980377129343697</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H38" t="n">
-        <v>4.798620783773642</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I38" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J38" t="n">
-        <v>39.76828421792344</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K38" t="n">
-        <v>59.60234917846422</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L38" t="n">
-        <v>73.94198455611956</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M38" t="n">
-        <v>82.27470491383316</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N38" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O38" t="n">
-        <v>78.94677091000041</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P38" t="n">
-        <v>67.37924247358768</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q38" t="n">
-        <v>50.59900502025984</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R38" t="n">
-        <v>29.43306362101513</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S38" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T38" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2507006927236295</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H39" t="n">
-        <v>2.421240900778211</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I39" t="n">
-        <v>8.631580867896893</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J39" t="n">
-        <v>23.68571764017414</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K39" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L39" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M39" t="n">
-        <v>63.52183780107049</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N39" t="n">
-        <v>65.2030718325373</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O39" t="n">
-        <v>59.64807227271371</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P39" t="n">
-        <v>47.87283666579553</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R39" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S39" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01049972198691</v>
+        <v>1.010499721986909</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01649346662655458</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H40" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318753</v>
       </c>
       <c r="I40" t="n">
-        <v>6.32065692422744</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J40" t="n">
-        <v>14.85965807125659</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K40" t="n">
-        <v>24.41898291766223</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L40" t="n">
-        <v>31.24789097303977</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M40" t="n">
-        <v>32.94651975346243</v>
+        <v>32.9465197534624</v>
       </c>
       <c r="N40" t="n">
-        <v>32.16312515281758</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O40" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P40" t="n">
-        <v>25.42019943165714</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497548</v>
       </c>
       <c r="R40" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S40" t="n">
-        <v>3.662847437649333</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8980377129343697</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H41" t="n">
-        <v>4.798620783773642</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I41" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J41" t="n">
-        <v>39.76828421792344</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K41" t="n">
-        <v>59.60234917846422</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L41" t="n">
-        <v>73.94198455611956</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M41" t="n">
-        <v>82.27470491383316</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N41" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O41" t="n">
-        <v>78.94677091000041</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P41" t="n">
-        <v>67.37924247358768</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q41" t="n">
-        <v>50.59900502025984</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R41" t="n">
-        <v>29.43306362101513</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S41" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T41" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2507006927236295</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H42" t="n">
-        <v>2.421240900778211</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I42" t="n">
-        <v>8.631580867896893</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J42" t="n">
-        <v>23.68571764017414</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K42" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L42" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M42" t="n">
-        <v>63.52183780107049</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N42" t="n">
-        <v>65.2030718325373</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O42" t="n">
-        <v>59.64807227271371</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P42" t="n">
-        <v>47.87283666579553</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R42" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S42" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T42" t="n">
-        <v>1.01049972198691</v>
+        <v>1.010499721986909</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01649346662655458</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H43" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318753</v>
       </c>
       <c r="I43" t="n">
-        <v>6.32065692422744</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J43" t="n">
-        <v>14.85965807125659</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K43" t="n">
-        <v>24.41898291766223</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L43" t="n">
-        <v>31.24789097303977</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M43" t="n">
-        <v>32.94651975346243</v>
+        <v>32.9465197534624</v>
       </c>
       <c r="N43" t="n">
-        <v>32.16312515281758</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O43" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P43" t="n">
-        <v>25.42019943165714</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497548</v>
       </c>
       <c r="R43" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S43" t="n">
-        <v>3.662847437649333</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8980377129343697</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4685581138800088</v>
+        <v>0.4685581138800084</v>
       </c>
       <c r="H44" t="n">
-        <v>4.798620783773642</v>
+        <v>4.798620783773638</v>
       </c>
       <c r="I44" t="n">
-        <v>18.06408668535906</v>
+        <v>18.06408668535904</v>
       </c>
       <c r="J44" t="n">
-        <v>39.76828421792344</v>
+        <v>39.7682842179234</v>
       </c>
       <c r="K44" t="n">
-        <v>59.60234917846422</v>
+        <v>59.60234917846417</v>
       </c>
       <c r="L44" t="n">
-        <v>73.94198455611956</v>
+        <v>73.94198455611949</v>
       </c>
       <c r="M44" t="n">
-        <v>82.27470491383316</v>
+        <v>82.27470491383309</v>
       </c>
       <c r="N44" t="n">
-        <v>83.60599565489474</v>
+        <v>83.60599565489467</v>
       </c>
       <c r="O44" t="n">
-        <v>78.94677091000041</v>
+        <v>78.94677091000032</v>
       </c>
       <c r="P44" t="n">
-        <v>67.37924247358768</v>
+        <v>67.37924247358761</v>
       </c>
       <c r="Q44" t="n">
-        <v>50.59900502025984</v>
+        <v>50.5990050202598</v>
       </c>
       <c r="R44" t="n">
-        <v>29.43306362101513</v>
+        <v>29.4330636210151</v>
       </c>
       <c r="S44" t="n">
-        <v>10.67726802004071</v>
+        <v>10.6772680200407</v>
       </c>
       <c r="T44" t="n">
-        <v>2.05111314350974</v>
+        <v>2.051113143509738</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0374846491104007</v>
+        <v>0.03748464911040066</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2507006927236295</v>
+        <v>0.2507006927236292</v>
       </c>
       <c r="H45" t="n">
-        <v>2.421240900778211</v>
+        <v>2.421240900778209</v>
       </c>
       <c r="I45" t="n">
-        <v>8.631580867896893</v>
+        <v>8.631580867896885</v>
       </c>
       <c r="J45" t="n">
-        <v>23.68571764017414</v>
+        <v>23.68571764017411</v>
       </c>
       <c r="K45" t="n">
-        <v>40.48266405265731</v>
+        <v>40.48266405265727</v>
       </c>
       <c r="L45" t="n">
-        <v>54.43393768983893</v>
+        <v>54.43393768983888</v>
       </c>
       <c r="M45" t="n">
-        <v>63.52183780107049</v>
+        <v>63.52183780107043</v>
       </c>
       <c r="N45" t="n">
-        <v>65.2030718325373</v>
+        <v>65.20307183253723</v>
       </c>
       <c r="O45" t="n">
-        <v>59.64807227271371</v>
+        <v>59.64807227271366</v>
       </c>
       <c r="P45" t="n">
-        <v>47.87283666579553</v>
+        <v>47.87283666579548</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.00172351328295</v>
+        <v>32.00172351328292</v>
       </c>
       <c r="R45" t="n">
-        <v>15.56543423770044</v>
+        <v>15.56543423770042</v>
       </c>
       <c r="S45" t="n">
-        <v>4.656655410897237</v>
+        <v>4.656655410897232</v>
       </c>
       <c r="T45" t="n">
-        <v>1.01049972198691</v>
+        <v>1.010499721986909</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01649346662655458</v>
+        <v>0.01649346662655456</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2101790391974057</v>
+        <v>0.2101790391974055</v>
       </c>
       <c r="H46" t="n">
-        <v>1.868682730318754</v>
+        <v>1.868682730318753</v>
       </c>
       <c r="I46" t="n">
-        <v>6.32065692422744</v>
+        <v>6.320656924227434</v>
       </c>
       <c r="J46" t="n">
-        <v>14.85965807125659</v>
+        <v>14.85965807125657</v>
       </c>
       <c r="K46" t="n">
-        <v>24.41898291766223</v>
+        <v>24.4189829176622</v>
       </c>
       <c r="L46" t="n">
-        <v>31.24789097303977</v>
+        <v>31.24789097303973</v>
       </c>
       <c r="M46" t="n">
-        <v>32.94651975346243</v>
+        <v>32.9465197534624</v>
       </c>
       <c r="N46" t="n">
-        <v>32.16312515281758</v>
+        <v>32.16312515281754</v>
       </c>
       <c r="O46" t="n">
-        <v>29.70785183128423</v>
+        <v>29.70785183128421</v>
       </c>
       <c r="P46" t="n">
-        <v>25.42019943165714</v>
+        <v>25.42019943165711</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.59962845497549</v>
+        <v>17.59962845497548</v>
       </c>
       <c r="R46" t="n">
-        <v>9.450413889730623</v>
+        <v>9.450413889730614</v>
       </c>
       <c r="S46" t="n">
-        <v>3.662847437649333</v>
+        <v>3.66284743764933</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8980377129343697</v>
+        <v>0.898037712934369</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01146431122894942</v>
+        <v>0.01146431122894941</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,22 +35404,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.03930354485632</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>112.73273045278</v>
+        <v>21.89689651283687</v>
       </c>
       <c r="K11" t="n">
-        <v>100.8435888672067</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>102.4460160557941</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>115.1826340794632</v>
       </c>
       <c r="N11" t="n">
-        <v>76.18204892870465</v>
+        <v>117.2721251454537</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35428,10 +35428,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03987566005883</v>
+        <v>90.03987566005875</v>
       </c>
       <c r="R11" t="n">
-        <v>74.334057809822</v>
+        <v>74.33405780982194</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35471,7 +35471,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>25.39117343086832</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -35516,7 +35516,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>25.39117343086827</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -35547,10 +35547,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>68.52306942227429</v>
       </c>
       <c r="E13" t="n">
-        <v>56.16763754308634</v>
+        <v>55.36241765640607</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35559,7 +35559,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>64.15400762458903</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>131.6224207170393</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -35610,7 +35610,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2494364431435372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.03930354485632</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>112.7327304527799</v>
       </c>
       <c r="K14" t="n">
-        <v>100.8435888672067</v>
+        <v>100.8435888672066</v>
       </c>
       <c r="L14" t="n">
-        <v>102.4460160557942</v>
+        <v>25.94922732810767</v>
       </c>
       <c r="M14" t="n">
-        <v>3.361777275963011</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>117.2721251454537</v>
       </c>
       <c r="O14" t="n">
-        <v>112.0562177926692</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03987566005883</v>
+        <v>90.03987566005873</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>74.33405780982191</v>
       </c>
       <c r="S14" t="n">
-        <v>45.38482606688035</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.39117343086827</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>25.39117343086839</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.41707398622988</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>56.41707398623018</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35875,34 +35875,34 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.22258194528139</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>126.3043431123104</v>
+      </c>
+      <c r="M17" t="n">
         <v>131.6224207170393</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
         <v>131.6224207170393</v>
       </c>
-      <c r="O17" t="n">
-        <v>65.23337818055005</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35911,10 +35911,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>109.8527791573824</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>77.61802454613606</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>126.3043431123104</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36133,19 +36133,19 @@
         <v>131.6224207170393</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>126.3043431123105</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>131.6224207170393</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>131.6224207170393</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -36349,22 +36349,22 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.222581945281447</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>48.68631856617431</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>131.6224207170393</v>
       </c>
       <c r="M23" t="n">
-        <v>43.46373662089287</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>131.6224207170393</v>
       </c>
       <c r="P23" t="n">
-        <v>131.6224207170393</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36589,28 +36589,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>56.10332119515252</v>
+        <v>28.3448020703634</v>
       </c>
       <c r="J26" t="n">
-        <v>101.7967481030762</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>96.71126635436251</v>
+        <v>89.90760651750288</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>91.51003370609031</v>
       </c>
       <c r="M26" t="n">
-        <v>486.5906009745431</v>
+        <v>104.2466517297594</v>
       </c>
       <c r="N26" t="n">
-        <v>106.33614279575</v>
+        <v>486.590600974543</v>
       </c>
       <c r="O26" t="n">
-        <v>486.5906009745431</v>
+        <v>101.1202354429653</v>
       </c>
       <c r="P26" t="n">
-        <v>88.63069473551658</v>
+        <v>486.590600974543</v>
       </c>
       <c r="Q26" t="n">
         <v>355.1133811682311</v>
@@ -36619,7 +36619,7 @@
         <v>148.8294212949953</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>34.44884371717656</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36683,10 +36683,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>55.01779765020158</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>55.01779765020149</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36753,28 +36753,28 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>128.7239719671877</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>28.45862282363663</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>55.45707262434454</v>
       </c>
       <c r="P28" t="n">
-        <v>122.6444574548101</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>103.6300759441361</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>70.55211163105048</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>56.10332119515252</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>321.6223478267722</v>
       </c>
       <c r="K29" t="n">
-        <v>89.90760651750291</v>
+        <v>486.590600974543</v>
       </c>
       <c r="L29" t="n">
-        <v>151.1852287040177</v>
+        <v>486.590600974543</v>
       </c>
       <c r="M29" t="n">
-        <v>486.5906009745431</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>106.33614279575</v>
       </c>
       <c r="O29" t="n">
-        <v>486.5906009745431</v>
+        <v>101.1202354429654</v>
       </c>
       <c r="P29" t="n">
-        <v>486.5906009745431</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>350.0958825834269</v>
       </c>
       <c r="R29" t="n">
-        <v>63.39807546011819</v>
+        <v>63.39807546011825</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>10.94829153805175</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36902,7 +36902,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>55.01779765020132</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>55.01779765020158</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36969,10 +36969,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>57.58708707257051</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>58.63933721679115</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>126.5939575189619</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37002,16 +37002,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>126.3401756522474</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>69.75364335354375</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>70.55211163105047</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>56.10332119515249</v>
+        <v>56.1033211951525</v>
       </c>
       <c r="J32" t="n">
-        <v>101.7967481030762</v>
+        <v>321.6223478267721</v>
       </c>
       <c r="K32" t="n">
-        <v>486.5906009745431</v>
+        <v>89.90760651750286</v>
       </c>
       <c r="L32" t="n">
-        <v>104.847243401268</v>
+        <v>384.8689889356338</v>
       </c>
       <c r="M32" t="n">
-        <v>486.5906009745431</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>106.33614279575</v>
       </c>
       <c r="O32" t="n">
-        <v>486.5906009745431</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>486.590600974543</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>355.1133811682311</v>
       </c>
       <c r="R32" t="n">
-        <v>63.39807546011816</v>
+        <v>91.71094446540839</v>
       </c>
       <c r="S32" t="n">
-        <v>34.44884371717652</v>
+        <v>34.44884371717653</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>55.01779765020167</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>55.01779765020159</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37206,7 +37206,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>57.58708707257048</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37218,25 +37218,25 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>53.21802527488522</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.381162287226315</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>130.782352807619</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>137.546881587901</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>123.9508034149639</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>97.75868019256771</v>
+        <v>97.75868019256772</v>
       </c>
       <c r="J35" t="n">
         <v>143.4521071004914</v>
@@ -37312,16 +37312,16 @@
         <v>133.1653927035055</v>
       </c>
       <c r="M35" t="n">
-        <v>145.9020107271747</v>
+        <v>145.9020107271749</v>
       </c>
       <c r="N35" t="n">
         <v>147.9915017931652</v>
       </c>
       <c r="O35" t="n">
-        <v>142.775594440381</v>
+        <v>142.7755944403805</v>
       </c>
       <c r="P35" t="n">
-        <v>130.2860537329318</v>
+        <v>130.2860537329317</v>
       </c>
       <c r="Q35" t="n">
         <v>120.7592523077702</v>
@@ -37330,10 +37330,10 @@
         <v>105.0534344575334</v>
       </c>
       <c r="S35" t="n">
-        <v>76.10420271459174</v>
+        <v>76.10420271459175</v>
       </c>
       <c r="T35" t="n">
-        <v>30.7193766477114</v>
+        <v>30.71937664771143</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>74.86868762166806</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>74.86868762166796</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>97.75868019256771</v>
+        <v>97.75868019256772</v>
       </c>
       <c r="J38" t="n">
-        <v>143.4521071004926</v>
+        <v>143.4521071004914</v>
       </c>
       <c r="K38" t="n">
         <v>131.5629655149181</v>
@@ -37549,7 +37549,7 @@
         <v>133.1653927035055</v>
       </c>
       <c r="M38" t="n">
-        <v>145.9020107271747</v>
+        <v>145.9020107271746</v>
       </c>
       <c r="N38" t="n">
         <v>147.9915017931652</v>
@@ -37558,7 +37558,7 @@
         <v>142.7755944403805</v>
       </c>
       <c r="P38" t="n">
-        <v>130.2860537329318</v>
+        <v>130.2860537329328</v>
       </c>
       <c r="Q38" t="n">
         <v>120.7592523077702</v>
@@ -37567,10 +37567,10 @@
         <v>105.0534344575334</v>
       </c>
       <c r="S38" t="n">
-        <v>76.10420271459174</v>
+        <v>76.10420271459175</v>
       </c>
       <c r="T38" t="n">
-        <v>30.7193766477114</v>
+        <v>30.71937664771143</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>74.86868762166806</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>31.99488484386732</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>42.87380277780065</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>97.75868019256774</v>
+        <v>97.75868019256778</v>
       </c>
       <c r="J41" t="n">
         <v>143.4521071004914</v>
@@ -37792,22 +37792,22 @@
         <v>147.9915017931652</v>
       </c>
       <c r="O41" t="n">
-        <v>142.7755944403806</v>
+        <v>142.7755944403805</v>
       </c>
       <c r="P41" t="n">
         <v>130.2860537329318</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.7592523077702</v>
+        <v>120.7592523077703</v>
       </c>
       <c r="R41" t="n">
         <v>105.0534344575334</v>
       </c>
       <c r="S41" t="n">
-        <v>76.10420271459176</v>
+        <v>76.10420271459181</v>
       </c>
       <c r="T41" t="n">
-        <v>30.71937664771144</v>
+        <v>30.71937664771147</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>74.86868762166796</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>74.86868762166779</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>97.75868019256774</v>
+        <v>97.75868019256778</v>
       </c>
       <c r="J44" t="n">
         <v>143.4521071004914</v>
@@ -38023,28 +38023,28 @@
         <v>133.1653927035056</v>
       </c>
       <c r="M44" t="n">
-        <v>145.9020107271748</v>
+        <v>145.9020107271747</v>
       </c>
       <c r="N44" t="n">
-        <v>147.9915017931652</v>
+        <v>147.9915017931648</v>
       </c>
       <c r="O44" t="n">
-        <v>142.7755944403806</v>
+        <v>142.7755944403805</v>
       </c>
       <c r="P44" t="n">
         <v>130.2860537329318</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.7592523077702</v>
+        <v>120.7592523077703</v>
       </c>
       <c r="R44" t="n">
         <v>105.0534344575334</v>
       </c>
       <c r="S44" t="n">
-        <v>76.10420271459176</v>
+        <v>76.10420271459181</v>
       </c>
       <c r="T44" t="n">
-        <v>30.71937664771143</v>
+        <v>30.71937664771148</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38169,13 +38169,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>74.86868762166796</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>11.16039047290999</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38199,10 +38199,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>42.87380277780071</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>20.8344943709571</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
